--- a/matlab/REU_2022/Topic_3_Soaring/Sim Draft 1/Code of Laws/MaxsLaw.xlsx
+++ b/matlab/REU_2022/Topic_3_Soaring/Sim Draft 1/Code of Laws/MaxsLaw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxlg\Dropbox (ASU)\PC\Documents\GitHub\REU_MatlabSim\REU_MatlabSim\matlab\REU_2022\Topic_3_Soaring\Sim Draft 1\Code of Laws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AA9762-41FA-4937-80EE-22AD7ABB0045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC681824-D2AE-4C65-A2AA-0B56E9AD3495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -720,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:AC84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -767,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>7200</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -860,12 +860,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -876,7 +876,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -887,7 +887,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -898,7 +898,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -909,26 +909,27 @@
         <v>9.81</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="2">
         <v>0.01</v>
       </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -939,21 +940,22 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="2">
         <v>1E-4</v>
       </c>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -964,21 +966,22 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="2">
         <v>0.01</v>
       </c>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -989,7 +992,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -1000,7 +1003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -1011,7 +1014,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -1022,7 +1025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -1030,15 +1033,15 @@
         <v>49</v>
       </c>
       <c r="C36">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" t="s">
         <v>52</v>
@@ -1046,14 +1049,15 @@
       <c r="C38" s="2">
         <v>9.9999999999999991E-22</v>
       </c>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>54</v>
       </c>
@@ -1061,7 +1065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>57</v>
       </c>
@@ -1072,12 +1076,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -1088,7 +1092,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -1099,7 +1103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -1110,7 +1114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -1121,7 +1125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>65</v>
       </c>
@@ -1133,7 +1137,7 @@
         <v>-0.52359877559829882</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>65</v>
       </c>
@@ -1145,7 +1149,7 @@
         <v>0.52359877559829882</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>68</v>
       </c>
@@ -1157,7 +1161,7 @@
         <v>5.7595865315812871</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>69</v>
       </c>
@@ -1165,7 +1169,7 @@
         <v>-1.8429999999999998E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>70</v>
       </c>
@@ -1173,7 +1177,7 @@
         <v>0.37819999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>71</v>
       </c>
@@ -1182,7 +1186,7 @@
         <v>-2.3782000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -1193,12 +1197,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>73</v>
       </c>
@@ -1206,7 +1210,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>75</v>
       </c>
@@ -1214,7 +1218,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>77</v>
       </c>
@@ -1222,7 +1226,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>81</v>
       </c>
@@ -1233,16 +1237,17 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>82</v>
       </c>
       <c r="C61" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="AB61" s="4"/>
+      <c r="AC61" s="4"/>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>83</v>
       </c>
@@ -1250,7 +1255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>84</v>
       </c>
@@ -1258,7 +1263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>85</v>
       </c>

--- a/matlab/REU_2022/Topic_3_Soaring/Sim Draft 1/Code of Laws/MaxsLaw.xlsx
+++ b/matlab/REU_2022/Topic_3_Soaring/Sim Draft 1/Code of Laws/MaxsLaw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxlg\Dropbox (ASU)\PC\Documents\GitHub\REU_MatlabSim\REU_MatlabSim\matlab\REU_2022\Topic_3_Soaring\Sim Draft 1\Code of Laws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC681824-D2AE-4C65-A2AA-0B56E9AD3495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A9D48C-1596-4F30-8114-10A6C06B5452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3696" yWindow="828" windowWidth="16080" windowHeight="10896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="120">
   <si>
     <t>dt</t>
   </si>
@@ -385,6 +385,15 @@
   </si>
   <si>
     <t>findNeighborhood_KNNInFixedRadius</t>
+  </si>
+  <si>
+    <t>followRadius</t>
+  </si>
+  <si>
+    <t>Frames to skip between Neighborhood Updates</t>
+  </si>
+  <si>
+    <t>neighborFrameSkip</t>
   </si>
 </sst>
 </file>
@@ -720,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC84"/>
+  <dimension ref="A1:AC86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -767,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>72</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -778,7 +787,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -822,31 +831,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>2600</v>
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -854,264 +863,264 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>28</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>29</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>9.81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.01</v>
       </c>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>34</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>33</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1E-4</v>
       </c>
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>38</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>37</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0.01</v>
       </c>
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>42</v>
-      </c>
       <c r="B32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32">
-        <v>-3</v>
+        <v>40</v>
+      </c>
+      <c r="C32" s="2">
+        <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C34">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C35">
-        <v>10</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>50</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>49</v>
       </c>
-      <c r="C36">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="C37">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="2">
-        <v>9.9999999999999991E-22</v>
       </c>
       <c r="AB38" s="2"/>
       <c r="AC38" s="2"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="1"/>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="2">
+        <v>9.9999999999999991E-22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
         <v>54</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>55</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44">
-        <v>1000</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C45">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C46">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.3">
@@ -1119,22 +1128,21 @@
         <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C47">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C48">
-        <f>-2/12*PI()</f>
-        <v>-0.52359877559829882</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.3">
@@ -1142,300 +1150,320 @@
         <v>65</v>
       </c>
       <c r="B49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49">
+        <f>-2/12*PI()</f>
+        <v>-0.52359877559829882</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" t="s">
         <v>66</v>
       </c>
-      <c r="C49">
+      <c r="C50">
         <f>2/12*PI()</f>
         <v>0.52359877559829882</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>68</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>67</v>
       </c>
-      <c r="C50">
+      <c r="C51">
         <f>11/6*PI()</f>
         <v>5.7595865315812871</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51">
-        <v>-1.8429999999999998E-2</v>
-      </c>
-    </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C52">
-        <v>0.37819999999999998</v>
+        <v>-1.8429999999999998E-2</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53">
+        <v>0.37819999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
         <v>71</v>
       </c>
-      <c r="C53">
+      <c r="C54">
         <f>-2.3782</f>
         <v>-2.3782000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>15</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>111</v>
       </c>
-      <c r="C54">
+      <c r="C55">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C58" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
         <v>77</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>81</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>79</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
-        <v>82</v>
-      </c>
-      <c r="C61" s="4" t="b">
-        <v>1</v>
       </c>
       <c r="AB61" s="4"/>
       <c r="AC61" s="4"/>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" t="b">
+        <v>82</v>
+      </c>
+      <c r="C62" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
         <v>87</v>
       </c>
-      <c r="C66" t="b">
+      <c r="C67" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="B68" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
         <v>89</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C71" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
         <v>91</v>
       </c>
-      <c r="C70">
+      <c r="C72">
         <v>50</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>102</v>
-      </c>
-      <c r="B71" t="s">
-        <v>92</v>
-      </c>
-      <c r="C71">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>22</v>
-      </c>
-      <c r="B72" t="s">
-        <v>93</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="B73" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B74" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C74">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B75" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C75">
-        <v>800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="B77" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C77">
-        <v>10</v>
+        <v>800</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B78" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C78">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B79" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C79">
-        <v>2000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>105</v>
+      </c>
+      <c r="B80" t="s">
+        <v>99</v>
+      </c>
+      <c r="C80">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>103</v>
+      </c>
+      <c r="B81" t="s">
+        <v>100</v>
+      </c>
+      <c r="C81">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>104</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B82" t="s">
         <v>101</v>
       </c>
-      <c r="C80">
+      <c r="C82">
         <v>4000</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
         <v>108</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C85" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
         <v>109</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C86" t="s">
         <v>116</v>
       </c>
     </row>

--- a/matlab/REU_2022/Topic_3_Soaring/Sim Draft 1/Code of Laws/MaxsLaw.xlsx
+++ b/matlab/REU_2022/Topic_3_Soaring/Sim Draft 1/Code of Laws/MaxsLaw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxlg\Dropbox (ASU)\PC\Documents\GitHub\REU_MatlabSim\REU_MatlabSim\matlab\REU_2022\Topic_3_Soaring\Sim Draft 1\Code of Laws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A9D48C-1596-4F30-8114-10A6C06B5452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97855E98-D2BD-464F-A952-91648054957F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3696" yWindow="828" windowWidth="16080" windowHeight="10896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="122">
   <si>
     <t>dt</t>
   </si>
@@ -276,9 +276,6 @@
     <t>renderScale</t>
   </si>
   <si>
-    <t>[150;150]</t>
-  </si>
-  <si>
     <t>[scaleX,scaleY]</t>
   </si>
   <si>
@@ -394,6 +391,15 @@
   </si>
   <si>
     <t>neighborFrameSkip</t>
+  </si>
+  <si>
+    <t>[100;100]</t>
+  </si>
+  <si>
+    <t>Multiplier to intensify bank angle based on thermal strength</t>
+  </si>
+  <si>
+    <t>thermalBankFactor</t>
   </si>
 </sst>
 </file>
@@ -729,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC86"/>
+  <dimension ref="A1:AC87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -746,7 +752,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -787,7 +793,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -825,7 +831,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -833,10 +839,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" t="s">
         <v>118</v>
-      </c>
-      <c r="B11" t="s">
-        <v>119</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -855,7 +861,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -893,7 +899,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
@@ -972,7 +978,7 @@
         <v>36</v>
       </c>
       <c r="C29" s="2">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.3">
@@ -998,7 +1004,7 @@
         <v>40</v>
       </c>
       <c r="C32" s="2">
-        <v>9.9999999999999995E-7</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
@@ -1053,7 +1059,7 @@
         <v>49</v>
       </c>
       <c r="C37">
-        <v>100000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.3">
@@ -1211,81 +1217,84 @@
         <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C55">
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>73</v>
-      </c>
-      <c r="C58" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C59" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
         <v>77</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>81</v>
-      </c>
-      <c r="B61" t="s">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" t="s">
         <v>79</v>
       </c>
-      <c r="C61" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB61" s="4"/>
-      <c r="AC61" s="4"/>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
-        <v>82</v>
-      </c>
-      <c r="C62" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="C62" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB62" s="4"/>
+      <c r="AC62" s="4"/>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" t="b">
+        <v>81</v>
+      </c>
+      <c r="C63" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
@@ -1293,7 +1302,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C66" t="b">
         <v>1</v>
@@ -1301,47 +1310,44 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>117</v>
-      </c>
-      <c r="C68">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
+      </c>
+      <c r="C68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>116</v>
+      </c>
+      <c r="C69">
+        <v>1500</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
-        <v>89</v>
-      </c>
-      <c r="C71" t="s">
-        <v>90</v>
+      <c r="A71" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>91</v>
-      </c>
-      <c r="C72">
-        <v>50</v>
+        <v>88</v>
+      </c>
+      <c r="C72" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>102</v>
-      </c>
       <c r="B73" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C73">
         <v>50</v>
@@ -1349,13 +1355,13 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="B74" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -1363,7 +1369,7 @@
         <v>22</v>
       </c>
       <c r="B75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -1371,13 +1377,13 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B76" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C76">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -1385,32 +1391,32 @@
         <v>15</v>
       </c>
       <c r="B77" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C77">
-        <v>800</v>
+        <v>500</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>800</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B79" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C79">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -1418,53 +1424,64 @@
         <v>105</v>
       </c>
       <c r="B80" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C80">
-        <v>1E-3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B81" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C81">
-        <v>2000</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B82" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C82">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>103</v>
+      </c>
+      <c r="B83" t="s">
+        <v>100</v>
+      </c>
+      <c r="C83">
         <v>4000</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B85" t="s">
-        <v>108</v>
-      </c>
-      <c r="C85" t="s">
-        <v>115</v>
+      <c r="A85" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C86" t="s">
-        <v>116</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>108</v>
+      </c>
+      <c r="C87" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/REU_2022/Topic_3_Soaring/Sim Draft 1/Code of Laws/MaxsLaw.xlsx
+++ b/matlab/REU_2022/Topic_3_Soaring/Sim Draft 1/Code of Laws/MaxsLaw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxlg\Dropbox (ASU)\PC\Documents\GitHub\REU_MatlabSim\REU_MatlabSim\matlab\REU_2022\Topic_3_Soaring\Sim Draft 1\Code of Laws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97855E98-D2BD-464F-A952-91648054957F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735FEAC8-F3AE-4ABE-9CD4-016E87F7FFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7068" yWindow="1260" windowWidth="14292" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,13 +393,13 @@
     <t>neighborFrameSkip</t>
   </si>
   <si>
-    <t>[100;100]</t>
-  </si>
-  <si>
     <t>Multiplier to intensify bank angle based on thermal strength</t>
   </si>
   <si>
     <t>thermalBankFactor</t>
+  </si>
+  <si>
+    <t>[150;150]</t>
   </si>
 </sst>
 </file>
@@ -738,7 +738,7 @@
   <dimension ref="A1:AC87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -782,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>7200</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -793,7 +793,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -804,7 +804,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -826,7 +826,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -845,7 +845,7 @@
         <v>118</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1059,7 +1059,7 @@
         <v>49</v>
       </c>
       <c r="C37">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.3">
@@ -1225,10 +1225,10 @@
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" t="s">
         <v>120</v>
-      </c>
-      <c r="B56" t="s">
-        <v>121</v>
       </c>
       <c r="C56">
         <v>0.05</v>
@@ -1271,7 +1271,7 @@
         <v>79</v>
       </c>
       <c r="C62" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AB62" s="4"/>
       <c r="AC62" s="4"/>
@@ -1281,7 +1281,7 @@
         <v>81</v>
       </c>
       <c r="C63" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.3">
@@ -1289,7 +1289,7 @@
         <v>82</v>
       </c>
       <c r="C64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1313,7 +1313,7 @@
         <v>85</v>
       </c>
       <c r="C67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -1321,7 +1321,7 @@
         <v>86</v>
       </c>
       <c r="C68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -1405,7 +1405,7 @@
         <v>95</v>
       </c>
       <c r="C78">
-        <v>800</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -1449,7 +1449,7 @@
         <v>99</v>
       </c>
       <c r="C82">
-        <v>2000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -1460,7 +1460,7 @@
         <v>100</v>
       </c>
       <c r="C83">
-        <v>4000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">

--- a/matlab/REU_2022/Topic_3_Soaring/Sim Draft 1/Code of Laws/MaxsLaw.xlsx
+++ b/matlab/REU_2022/Topic_3_Soaring/Sim Draft 1/Code of Laws/MaxsLaw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxlg\Dropbox (ASU)\PC\Documents\GitHub\REU_MatlabSim\REU_MatlabSim\matlab\REU_2022\Topic_3_Soaring\Sim Draft 1\Code of Laws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735FEAC8-F3AE-4ABE-9CD4-016E87F7FFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB99739-F7EA-4576-9A9C-4B3A17641D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7068" yWindow="1260" windowWidth="14292" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="126">
   <si>
     <t>dt</t>
   </si>
@@ -400,6 +400,18 @@
   </si>
   <si>
     <t>[150;150]</t>
+  </si>
+  <si>
+    <t>Show</t>
+  </si>
+  <si>
+    <t>on/off</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>render</t>
   </si>
 </sst>
 </file>
@@ -735,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC87"/>
+  <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -782,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>18000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -793,7 +805,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -804,7 +816,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -815,7 +827,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>40</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -886,12 +898,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -902,7 +914,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -913,7 +925,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -924,7 +936,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -935,19 +947,19 @@
         <v>9.81</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AB25" s="2"/>
-      <c r="AC25" s="2"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>32</v>
       </c>
@@ -955,7 +967,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -966,22 +978,22 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -992,14 +1004,14 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="2"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>40</v>
       </c>
@@ -1007,7 +1019,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -1018,7 +1030,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -1029,7 +1041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -1040,7 +1052,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -1051,7 +1063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -1059,17 +1071,17 @@
         <v>49</v>
       </c>
       <c r="C37">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AB38" s="2"/>
-      <c r="AC38" s="2"/>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" t="s">
         <v>52</v>
@@ -1078,12 +1090,12 @@
         <v>9.9999999999999991E-22</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>54</v>
       </c>
@@ -1091,7 +1103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>57</v>
       </c>
@@ -1102,12 +1114,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -1118,7 +1130,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -1126,10 +1138,10 @@
         <v>60</v>
       </c>
       <c r="C46">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -1140,7 +1152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -1151,7 +1163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>65</v>
       </c>
@@ -1159,11 +1171,11 @@
         <v>64</v>
       </c>
       <c r="C49">
-        <f>-2/12*PI()</f>
+        <f t="shared" ref="C49" si="0">-2/12*PI()</f>
         <v>-0.52359877559829882</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>65</v>
       </c>
@@ -1171,11 +1183,11 @@
         <v>66</v>
       </c>
       <c r="C50">
-        <f>2/12*PI()</f>
+        <f t="shared" ref="C50" si="1">2/12*PI()</f>
         <v>0.52359877559829882</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -1183,11 +1195,11 @@
         <v>67</v>
       </c>
       <c r="C51">
-        <f>11/6*PI()</f>
+        <f t="shared" ref="C51" si="2">11/6*PI()</f>
         <v>5.7595865315812871</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>69</v>
       </c>
@@ -1195,7 +1207,7 @@
         <v>-1.8429999999999998E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>70</v>
       </c>
@@ -1203,16 +1215,16 @@
         <v>0.37819999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>71</v>
       </c>
       <c r="C54">
-        <f>-2.3782</f>
+        <f t="shared" ref="C54" si="3">-2.3782</f>
         <v>-2.3782000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -1223,7 +1235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>119</v>
       </c>
@@ -1234,12 +1246,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>73</v>
       </c>
@@ -1247,7 +1259,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>75</v>
       </c>
@@ -1255,7 +1267,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>77</v>
       </c>
@@ -1263,7 +1275,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>80</v>
       </c>
@@ -1273,214 +1285,235 @@
       <c r="C62" t="s">
         <v>121</v>
       </c>
-      <c r="AB62" s="4"/>
-      <c r="AC62" s="4"/>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4"/>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" t="b">
+        <v>0</v>
+      </c>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
         <v>81</v>
       </c>
-      <c r="C63" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
-        <v>82</v>
-      </c>
-      <c r="C64" t="b">
-        <v>0</v>
+      <c r="C64" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>83</v>
-      </c>
-      <c r="C65" t="b">
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="C65" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>84</v>
-      </c>
-      <c r="C66" t="b">
+        <v>83</v>
+      </c>
+      <c r="C66" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" t="b">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="C68" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>123</v>
+      </c>
+      <c r="B70" t="s">
+        <v>122</v>
+      </c>
+      <c r="C70" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
         <v>116</v>
       </c>
-      <c r="C69">
+      <c r="C71">
         <v>1500</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
         <v>88</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C74" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
         <v>90</v>
       </c>
-      <c r="C73">
+      <c r="C75">
         <v>50</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>101</v>
-      </c>
-      <c r="B74" t="s">
-        <v>91</v>
-      </c>
-      <c r="C74">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>22</v>
-      </c>
-      <c r="B75" t="s">
-        <v>92</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="B76" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B77" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C77">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B78" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C78">
-        <v>1100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C80">
-        <v>10</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B81" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C81">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B82" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C82">
-        <v>30000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>104</v>
+      </c>
+      <c r="B83" t="s">
+        <v>98</v>
+      </c>
+      <c r="C83">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>102</v>
+      </c>
+      <c r="B84" t="s">
+        <v>99</v>
+      </c>
+      <c r="C84">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>103</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B85" t="s">
         <v>100</v>
       </c>
-      <c r="C83">
+      <c r="C85">
         <v>90000</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
         <v>107</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C88" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
         <v>108</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C89" t="s">
         <v>115</v>
       </c>
     </row>

--- a/matlab/REU_2022/Topic_3_Soaring/Sim Draft 1/Code of Laws/MaxsLaw.xlsx
+++ b/matlab/REU_2022/Topic_3_Soaring/Sim Draft 1/Code of Laws/MaxsLaw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxlg\Dropbox (ASU)\PC\Documents\GitHub\REU_MatlabSim\REU_MatlabSim\matlab\REU_2022\Topic_3_Soaring\Sim Draft 1\Code of Laws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB99739-F7EA-4576-9A9C-4B3A17641D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876A1CB8-79E5-4338-8AAA-79A9D7007B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="128">
   <si>
     <t>dt</t>
   </si>
@@ -372,12 +372,6 @@
     <t>stopWhenDead</t>
   </si>
   <si>
-    <t>[-4000,4000]</t>
-  </si>
-  <si>
-    <t>[-3000,-3000;3000,3000]</t>
-  </si>
-  <si>
     <t>agentControl_Max</t>
   </si>
   <si>
@@ -412,6 +406,18 @@
   </si>
   <si>
     <t>render</t>
+  </si>
+  <si>
+    <t>[-8000,8000]</t>
+  </si>
+  <si>
+    <t>[-6000,-6000;6000,6000]</t>
+  </si>
+  <si>
+    <t>listNeighborData</t>
+  </si>
+  <si>
+    <t>rngSeed</t>
   </si>
 </sst>
 </file>
@@ -747,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y89"/>
+  <dimension ref="A1:AF91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,7 +765,7 @@
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -769,13 +775,100 @@
       <c r="C1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+      <c r="Z1">
+        <v>24</v>
+      </c>
+      <c r="AA1">
+        <v>25</v>
+      </c>
+      <c r="AB1">
+        <v>26</v>
+      </c>
+      <c r="AC1">
+        <v>27</v>
+      </c>
+      <c r="AD1">
+        <v>28</v>
+      </c>
+      <c r="AE1">
+        <v>29</v>
+      </c>
+      <c r="AF1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -783,10 +876,97 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.5</v>
+      </c>
+      <c r="H4">
+        <v>0.5</v>
+      </c>
+      <c r="I4">
+        <v>0.5</v>
+      </c>
+      <c r="J4">
+        <v>0.5</v>
+      </c>
+      <c r="K4">
+        <v>0.5</v>
+      </c>
+      <c r="L4">
+        <v>0.5</v>
+      </c>
+      <c r="M4">
+        <v>0.5</v>
+      </c>
+      <c r="N4">
+        <v>0.5</v>
+      </c>
+      <c r="O4">
+        <v>0.5</v>
+      </c>
+      <c r="P4">
+        <v>0.5</v>
+      </c>
+      <c r="Q4">
+        <v>0.5</v>
+      </c>
+      <c r="R4">
+        <v>0.5</v>
+      </c>
+      <c r="S4">
+        <v>0.5</v>
+      </c>
+      <c r="T4">
+        <v>0.5</v>
+      </c>
+      <c r="U4">
+        <v>0.5</v>
+      </c>
+      <c r="V4">
+        <v>0.5</v>
+      </c>
+      <c r="W4">
+        <v>0.5</v>
+      </c>
+      <c r="X4">
+        <v>0.5</v>
+      </c>
+      <c r="Y4">
+        <v>0.5</v>
+      </c>
+      <c r="Z4">
+        <v>0.5</v>
+      </c>
+      <c r="AA4">
+        <v>0.5</v>
+      </c>
+      <c r="AB4">
+        <v>0.5</v>
+      </c>
+      <c r="AC4">
+        <v>0.5</v>
+      </c>
+      <c r="AD4">
+        <v>0.5</v>
+      </c>
+      <c r="AE4">
+        <v>0.5</v>
+      </c>
+      <c r="AF4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -794,10 +974,97 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="D5">
+        <v>7200</v>
+      </c>
+      <c r="E5">
+        <v>7200</v>
+      </c>
+      <c r="F5">
+        <v>7200</v>
+      </c>
+      <c r="G5">
+        <v>7200</v>
+      </c>
+      <c r="H5">
+        <v>7200</v>
+      </c>
+      <c r="I5">
+        <v>7200</v>
+      </c>
+      <c r="J5">
+        <v>7200</v>
+      </c>
+      <c r="K5">
+        <v>7200</v>
+      </c>
+      <c r="L5">
+        <v>7200</v>
+      </c>
+      <c r="M5">
+        <v>7200</v>
+      </c>
+      <c r="N5">
+        <v>7200</v>
+      </c>
+      <c r="O5">
+        <v>7200</v>
+      </c>
+      <c r="P5">
+        <v>7200</v>
+      </c>
+      <c r="Q5">
+        <v>7200</v>
+      </c>
+      <c r="R5">
+        <v>7200</v>
+      </c>
+      <c r="S5">
+        <v>7200</v>
+      </c>
+      <c r="T5">
+        <v>7200</v>
+      </c>
+      <c r="U5">
+        <v>7200</v>
+      </c>
+      <c r="V5">
+        <v>7200</v>
+      </c>
+      <c r="W5">
+        <v>7200</v>
+      </c>
+      <c r="X5">
+        <v>7200</v>
+      </c>
+      <c r="Y5">
+        <v>7200</v>
+      </c>
+      <c r="Z5">
+        <v>7200</v>
+      </c>
+      <c r="AA5">
+        <v>7200</v>
+      </c>
+      <c r="AB5">
+        <v>7200</v>
+      </c>
+      <c r="AC5">
+        <v>7200</v>
+      </c>
+      <c r="AD5">
+        <v>7200</v>
+      </c>
+      <c r="AE5">
+        <v>7200</v>
+      </c>
+      <c r="AF5">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -805,10 +1072,97 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -816,10 +1170,97 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="D7">
+        <v>60</v>
+      </c>
+      <c r="E7">
+        <v>60</v>
+      </c>
+      <c r="F7">
+        <v>60</v>
+      </c>
+      <c r="G7">
+        <v>60</v>
+      </c>
+      <c r="H7">
+        <v>60</v>
+      </c>
+      <c r="I7">
+        <v>60</v>
+      </c>
+      <c r="J7">
+        <v>60</v>
+      </c>
+      <c r="K7">
+        <v>60</v>
+      </c>
+      <c r="L7">
+        <v>60</v>
+      </c>
+      <c r="M7">
+        <v>60</v>
+      </c>
+      <c r="N7">
+        <v>60</v>
+      </c>
+      <c r="O7">
+        <v>60</v>
+      </c>
+      <c r="P7">
+        <v>60</v>
+      </c>
+      <c r="Q7">
+        <v>60</v>
+      </c>
+      <c r="R7">
+        <v>60</v>
+      </c>
+      <c r="S7">
+        <v>60</v>
+      </c>
+      <c r="T7">
+        <v>60</v>
+      </c>
+      <c r="U7">
+        <v>60</v>
+      </c>
+      <c r="V7">
+        <v>60</v>
+      </c>
+      <c r="W7">
+        <v>60</v>
+      </c>
+      <c r="X7">
+        <v>60</v>
+      </c>
+      <c r="Y7">
+        <v>60</v>
+      </c>
+      <c r="Z7">
+        <v>60</v>
+      </c>
+      <c r="AA7">
+        <v>60</v>
+      </c>
+      <c r="AB7">
+        <v>60</v>
+      </c>
+      <c r="AC7">
+        <v>60</v>
+      </c>
+      <c r="AD7">
+        <v>60</v>
+      </c>
+      <c r="AE7">
+        <v>60</v>
+      </c>
+      <c r="AF7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -827,10 +1268,97 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <v>40</v>
+      </c>
+      <c r="H8">
+        <v>40</v>
+      </c>
+      <c r="I8">
+        <v>40</v>
+      </c>
+      <c r="J8">
+        <v>40</v>
+      </c>
+      <c r="K8">
+        <v>40</v>
+      </c>
+      <c r="L8">
+        <v>40</v>
+      </c>
+      <c r="M8">
+        <v>40</v>
+      </c>
+      <c r="N8">
+        <v>40</v>
+      </c>
+      <c r="O8">
+        <v>40</v>
+      </c>
+      <c r="P8">
+        <v>40</v>
+      </c>
+      <c r="Q8">
+        <v>40</v>
+      </c>
+      <c r="R8">
+        <v>40</v>
+      </c>
+      <c r="S8">
+        <v>40</v>
+      </c>
+      <c r="T8">
+        <v>40</v>
+      </c>
+      <c r="U8">
+        <v>40</v>
+      </c>
+      <c r="V8">
+        <v>40</v>
+      </c>
+      <c r="W8">
+        <v>40</v>
+      </c>
+      <c r="X8">
+        <v>40</v>
+      </c>
+      <c r="Y8">
+        <v>40</v>
+      </c>
+      <c r="Z8">
+        <v>40</v>
+      </c>
+      <c r="AA8">
+        <v>40</v>
+      </c>
+      <c r="AB8">
+        <v>40</v>
+      </c>
+      <c r="AC8">
+        <v>40</v>
+      </c>
+      <c r="AD8">
+        <v>40</v>
+      </c>
+      <c r="AE8">
+        <v>40</v>
+      </c>
+      <c r="AF8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -838,683 +1366,6371 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>24</v>
+      </c>
+      <c r="F9">
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <v>24</v>
+      </c>
+      <c r="H9">
+        <v>24</v>
+      </c>
+      <c r="I9">
+        <v>24</v>
+      </c>
+      <c r="J9">
+        <v>24</v>
+      </c>
+      <c r="K9">
+        <v>24</v>
+      </c>
+      <c r="L9">
+        <v>24</v>
+      </c>
+      <c r="M9">
+        <v>24</v>
+      </c>
+      <c r="N9">
+        <v>24</v>
+      </c>
+      <c r="O9">
+        <v>24</v>
+      </c>
+      <c r="P9">
+        <v>24</v>
+      </c>
+      <c r="Q9">
+        <v>24</v>
+      </c>
+      <c r="R9">
+        <v>24</v>
+      </c>
+      <c r="S9">
+        <v>24</v>
+      </c>
+      <c r="T9">
+        <v>24</v>
+      </c>
+      <c r="U9">
+        <v>24</v>
+      </c>
+      <c r="V9">
+        <v>24</v>
+      </c>
+      <c r="W9">
+        <v>24</v>
+      </c>
+      <c r="X9">
+        <v>24</v>
+      </c>
+      <c r="Y9">
+        <v>24</v>
+      </c>
+      <c r="Z9">
+        <v>24</v>
+      </c>
+      <c r="AA9">
+        <v>24</v>
+      </c>
+      <c r="AB9">
+        <v>24</v>
+      </c>
+      <c r="AC9">
+        <v>24</v>
+      </c>
+      <c r="AD9">
+        <v>24</v>
+      </c>
+      <c r="AE9">
+        <v>24</v>
+      </c>
+      <c r="AF9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>111</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S10" t="b">
+        <v>1</v>
+      </c>
+      <c r="T10" t="b">
+        <v>1</v>
+      </c>
+      <c r="U10" t="b">
+        <v>1</v>
+      </c>
+      <c r="V10" t="b">
+        <v>1</v>
+      </c>
+      <c r="W10" t="b">
+        <v>1</v>
+      </c>
+      <c r="X10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C11">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>15</v>
+      </c>
+      <c r="H11">
+        <v>15</v>
+      </c>
+      <c r="I11">
+        <v>15</v>
+      </c>
+      <c r="J11">
+        <v>15</v>
+      </c>
+      <c r="K11">
+        <v>15</v>
+      </c>
+      <c r="L11">
+        <v>15</v>
+      </c>
+      <c r="M11">
+        <v>15</v>
+      </c>
+      <c r="N11">
+        <v>15</v>
+      </c>
+      <c r="O11">
+        <v>15</v>
+      </c>
+      <c r="P11">
+        <v>15</v>
+      </c>
+      <c r="Q11">
+        <v>15</v>
+      </c>
+      <c r="R11">
+        <v>15</v>
+      </c>
+      <c r="S11">
+        <v>15</v>
+      </c>
+      <c r="T11">
+        <v>15</v>
+      </c>
+      <c r="U11">
+        <v>15</v>
+      </c>
+      <c r="V11">
+        <v>15</v>
+      </c>
+      <c r="W11">
+        <v>15</v>
+      </c>
+      <c r="X11">
+        <v>15</v>
+      </c>
+      <c r="Y11">
+        <v>15</v>
+      </c>
+      <c r="Z11">
+        <v>15</v>
+      </c>
+      <c r="AA11">
+        <v>15</v>
+      </c>
+      <c r="AB11">
+        <v>15</v>
+      </c>
+      <c r="AC11">
+        <v>15</v>
+      </c>
+      <c r="AD11">
+        <v>15</v>
+      </c>
+      <c r="AE11">
+        <v>15</v>
+      </c>
+      <c r="AF11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>6</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="R12">
+        <v>4</v>
+      </c>
+      <c r="S12">
+        <v>5</v>
+      </c>
+      <c r="T12">
+        <v>6</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>2</v>
+      </c>
+      <c r="W12">
+        <v>3</v>
+      </c>
+      <c r="X12">
+        <v>4</v>
+      </c>
+      <c r="Y12">
+        <v>5</v>
+      </c>
+      <c r="Z12">
+        <v>6</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>2</v>
+      </c>
+      <c r="AC12">
+        <v>3</v>
+      </c>
+      <c r="AD12">
+        <v>4</v>
+      </c>
+      <c r="AE12">
+        <v>5</v>
+      </c>
+      <c r="AF12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" t="s">
+        <v>124</v>
+      </c>
+      <c r="K15" t="s">
+        <v>124</v>
+      </c>
+      <c r="L15" t="s">
+        <v>124</v>
+      </c>
+      <c r="M15" t="s">
+        <v>124</v>
+      </c>
+      <c r="N15" t="s">
+        <v>124</v>
+      </c>
+      <c r="O15" t="s">
+        <v>124</v>
+      </c>
+      <c r="P15" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>124</v>
+      </c>
+      <c r="R15" t="s">
+        <v>124</v>
+      </c>
+      <c r="S15" t="s">
+        <v>124</v>
+      </c>
+      <c r="T15" t="s">
+        <v>124</v>
+      </c>
+      <c r="U15" t="s">
+        <v>124</v>
+      </c>
+      <c r="V15" t="s">
+        <v>124</v>
+      </c>
+      <c r="W15" t="s">
+        <v>124</v>
+      </c>
+      <c r="X15" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>2600</v>
+      </c>
+      <c r="D16">
+        <v>2600</v>
+      </c>
+      <c r="E16">
+        <v>2600</v>
+      </c>
+      <c r="F16">
+        <v>2600</v>
+      </c>
+      <c r="G16">
+        <v>2600</v>
+      </c>
+      <c r="H16">
+        <v>2600</v>
+      </c>
+      <c r="I16">
+        <v>2600</v>
+      </c>
+      <c r="J16">
+        <v>2600</v>
+      </c>
+      <c r="K16">
+        <v>2600</v>
+      </c>
+      <c r="L16">
+        <v>2600</v>
+      </c>
+      <c r="M16">
+        <v>2600</v>
+      </c>
+      <c r="N16">
+        <v>2600</v>
+      </c>
+      <c r="O16">
+        <v>2600</v>
+      </c>
+      <c r="P16">
+        <v>2600</v>
+      </c>
+      <c r="Q16">
+        <v>2600</v>
+      </c>
+      <c r="R16">
+        <v>2600</v>
+      </c>
+      <c r="S16">
+        <v>2600</v>
+      </c>
+      <c r="T16">
+        <v>2600</v>
+      </c>
+      <c r="U16">
+        <v>2600</v>
+      </c>
+      <c r="V16">
+        <v>2600</v>
+      </c>
+      <c r="W16">
+        <v>2600</v>
+      </c>
+      <c r="X16">
+        <v>2600</v>
+      </c>
+      <c r="Y16">
+        <v>2600</v>
+      </c>
+      <c r="Z16">
+        <v>2600</v>
+      </c>
+      <c r="AA16">
+        <v>2600</v>
+      </c>
+      <c r="AB16">
+        <v>2600</v>
+      </c>
+      <c r="AC16">
+        <v>2600</v>
+      </c>
+      <c r="AD16">
+        <v>2600</v>
+      </c>
+      <c r="AE16">
+        <v>2600</v>
+      </c>
+      <c r="AF16">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="C20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" t="s">
+        <v>125</v>
+      </c>
+      <c r="I20" t="s">
+        <v>125</v>
+      </c>
+      <c r="J20" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" t="s">
+        <v>125</v>
+      </c>
+      <c r="L20" t="s">
+        <v>125</v>
+      </c>
+      <c r="M20" t="s">
+        <v>125</v>
+      </c>
+      <c r="N20" t="s">
+        <v>125</v>
+      </c>
+      <c r="O20" t="s">
+        <v>125</v>
+      </c>
+      <c r="P20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>125</v>
+      </c>
+      <c r="R20" t="s">
+        <v>125</v>
+      </c>
+      <c r="S20" t="s">
+        <v>125</v>
+      </c>
+      <c r="T20" t="s">
+        <v>125</v>
+      </c>
+      <c r="U20" t="s">
+        <v>125</v>
+      </c>
+      <c r="V20" t="s">
+        <v>125</v>
+      </c>
+      <c r="W20" t="s">
+        <v>125</v>
+      </c>
+      <c r="X20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" t="s">
+        <v>21</v>
+      </c>
+      <c r="P21" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>21</v>
+      </c>
+      <c r="R21" t="s">
+        <v>21</v>
+      </c>
+      <c r="S21" t="s">
+        <v>21</v>
+      </c>
+      <c r="T21" t="s">
+        <v>21</v>
+      </c>
+      <c r="U21" t="s">
+        <v>21</v>
+      </c>
+      <c r="V21" t="s">
+        <v>21</v>
+      </c>
+      <c r="W21" t="s">
+        <v>21</v>
+      </c>
+      <c r="X21" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>24</v>
+      </c>
+      <c r="R22" t="s">
+        <v>24</v>
+      </c>
+      <c r="S22" t="s">
+        <v>24</v>
+      </c>
+      <c r="T22" t="s">
+        <v>24</v>
+      </c>
+      <c r="U22" t="s">
+        <v>24</v>
+      </c>
+      <c r="V22" t="s">
+        <v>24</v>
+      </c>
+      <c r="W22" t="s">
+        <v>24</v>
+      </c>
+      <c r="X22" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>29</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>9.81</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="D23">
+        <v>9.81</v>
+      </c>
+      <c r="E23">
+        <v>9.81</v>
+      </c>
+      <c r="F23">
+        <v>9.81</v>
+      </c>
+      <c r="G23">
+        <v>9.81</v>
+      </c>
+      <c r="H23">
+        <v>9.81</v>
+      </c>
+      <c r="I23">
+        <v>9.81</v>
+      </c>
+      <c r="J23">
+        <v>9.81</v>
+      </c>
+      <c r="K23">
+        <v>9.81</v>
+      </c>
+      <c r="L23">
+        <v>9.81</v>
+      </c>
+      <c r="M23">
+        <v>9.81</v>
+      </c>
+      <c r="N23">
+        <v>9.81</v>
+      </c>
+      <c r="O23">
+        <v>9.81</v>
+      </c>
+      <c r="P23">
+        <v>9.81</v>
+      </c>
+      <c r="Q23">
+        <v>9.81</v>
+      </c>
+      <c r="R23">
+        <v>9.81</v>
+      </c>
+      <c r="S23">
+        <v>9.81</v>
+      </c>
+      <c r="T23">
+        <v>9.81</v>
+      </c>
+      <c r="U23">
+        <v>9.81</v>
+      </c>
+      <c r="V23">
+        <v>9.81</v>
+      </c>
+      <c r="W23">
+        <v>9.81</v>
+      </c>
+      <c r="X23">
+        <v>9.81</v>
+      </c>
+      <c r="Y23">
+        <v>9.81</v>
+      </c>
+      <c r="Z23">
+        <v>9.81</v>
+      </c>
+      <c r="AA23">
+        <v>9.81</v>
+      </c>
+      <c r="AB23">
+        <v>9.81</v>
+      </c>
+      <c r="AC23">
+        <v>9.81</v>
+      </c>
+      <c r="AD23">
+        <v>9.81</v>
+      </c>
+      <c r="AE23">
+        <v>9.81</v>
+      </c>
+      <c r="AF23">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C27" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="D27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="G27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="J27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="K27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="O27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="P27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="R27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="S27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="T27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="U27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="V27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="W27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="X27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="AB27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="AC27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="AE27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="AF27" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>34</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>33</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>200</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="D28">
+        <v>200</v>
+      </c>
+      <c r="E28">
+        <v>200</v>
+      </c>
+      <c r="F28">
+        <v>200</v>
+      </c>
+      <c r="G28">
+        <v>200</v>
+      </c>
+      <c r="H28">
+        <v>200</v>
+      </c>
+      <c r="I28">
+        <v>200</v>
+      </c>
+      <c r="J28">
+        <v>200</v>
+      </c>
+      <c r="K28">
+        <v>200</v>
+      </c>
+      <c r="L28">
+        <v>200</v>
+      </c>
+      <c r="M28">
+        <v>200</v>
+      </c>
+      <c r="N28">
+        <v>200</v>
+      </c>
+      <c r="O28">
+        <v>200</v>
+      </c>
+      <c r="P28">
+        <v>200</v>
+      </c>
+      <c r="Q28">
+        <v>200</v>
+      </c>
+      <c r="R28">
+        <v>200</v>
+      </c>
+      <c r="S28">
+        <v>200</v>
+      </c>
+      <c r="T28">
+        <v>200</v>
+      </c>
+      <c r="U28">
+        <v>200</v>
+      </c>
+      <c r="V28">
+        <v>200</v>
+      </c>
+      <c r="W28">
+        <v>200</v>
+      </c>
+      <c r="X28">
+        <v>200</v>
+      </c>
+      <c r="Y28">
+        <v>200</v>
+      </c>
+      <c r="Z28">
+        <v>200</v>
+      </c>
+      <c r="AA28">
+        <v>200</v>
+      </c>
+      <c r="AB28">
+        <v>200</v>
+      </c>
+      <c r="AC28">
+        <v>200</v>
+      </c>
+      <c r="AD28">
+        <v>200</v>
+      </c>
+      <c r="AE28">
+        <v>200</v>
+      </c>
+      <c r="AF28">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="C30" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L30" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="N30" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="R30" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="S30" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="T30" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="U30" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="V30" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="W30" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="X30" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>38</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>37</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>200</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="D31">
+        <v>200</v>
+      </c>
+      <c r="E31">
+        <v>200</v>
+      </c>
+      <c r="F31">
+        <v>200</v>
+      </c>
+      <c r="G31">
+        <v>200</v>
+      </c>
+      <c r="H31">
+        <v>200</v>
+      </c>
+      <c r="I31">
+        <v>200</v>
+      </c>
+      <c r="J31">
+        <v>200</v>
+      </c>
+      <c r="K31">
+        <v>200</v>
+      </c>
+      <c r="L31">
+        <v>200</v>
+      </c>
+      <c r="M31">
+        <v>200</v>
+      </c>
+      <c r="N31">
+        <v>200</v>
+      </c>
+      <c r="O31">
+        <v>200</v>
+      </c>
+      <c r="P31">
+        <v>200</v>
+      </c>
+      <c r="Q31">
+        <v>200</v>
+      </c>
+      <c r="R31">
+        <v>200</v>
+      </c>
+      <c r="S31">
+        <v>200</v>
+      </c>
+      <c r="T31">
+        <v>200</v>
+      </c>
+      <c r="U31">
+        <v>200</v>
+      </c>
+      <c r="V31">
+        <v>200</v>
+      </c>
+      <c r="W31">
+        <v>200</v>
+      </c>
+      <c r="X31">
+        <v>200</v>
+      </c>
+      <c r="Y31">
+        <v>200</v>
+      </c>
+      <c r="Z31">
+        <v>200</v>
+      </c>
+      <c r="AA31">
+        <v>200</v>
+      </c>
+      <c r="AB31">
+        <v>200</v>
+      </c>
+      <c r="AC31">
+        <v>200</v>
+      </c>
+      <c r="AD31">
+        <v>200</v>
+      </c>
+      <c r="AE31">
+        <v>200</v>
+      </c>
+      <c r="AF31">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C33" s="2">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="D33" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M33" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="N33" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="O33" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="P33" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="R33" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="S33" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="T33" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="U33" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="V33" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="W33" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="X33" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="AB33" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="AD33" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="AE33" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="AF33" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>42</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>41</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="D34">
+        <v>-3</v>
+      </c>
+      <c r="E34">
+        <v>-3</v>
+      </c>
+      <c r="F34">
+        <v>-3</v>
+      </c>
+      <c r="G34">
+        <v>-3</v>
+      </c>
+      <c r="H34">
+        <v>-3</v>
+      </c>
+      <c r="I34">
+        <v>-3</v>
+      </c>
+      <c r="J34">
+        <v>-3</v>
+      </c>
+      <c r="K34">
+        <v>-3</v>
+      </c>
+      <c r="L34">
+        <v>-3</v>
+      </c>
+      <c r="M34">
+        <v>-3</v>
+      </c>
+      <c r="N34">
+        <v>-3</v>
+      </c>
+      <c r="O34">
+        <v>-3</v>
+      </c>
+      <c r="P34">
+        <v>-3</v>
+      </c>
+      <c r="Q34">
+        <v>-3</v>
+      </c>
+      <c r="R34">
+        <v>-3</v>
+      </c>
+      <c r="S34">
+        <v>-3</v>
+      </c>
+      <c r="T34">
+        <v>-3</v>
+      </c>
+      <c r="U34">
+        <v>-3</v>
+      </c>
+      <c r="V34">
+        <v>-3</v>
+      </c>
+      <c r="W34">
+        <v>-3</v>
+      </c>
+      <c r="X34">
+        <v>-3</v>
+      </c>
+      <c r="Y34">
+        <v>-3</v>
+      </c>
+      <c r="Z34">
+        <v>-3</v>
+      </c>
+      <c r="AA34">
+        <v>-3</v>
+      </c>
+      <c r="AB34">
+        <v>-3</v>
+      </c>
+      <c r="AC34">
+        <v>-3</v>
+      </c>
+      <c r="AD34">
+        <v>-3</v>
+      </c>
+      <c r="AE34">
+        <v>-3</v>
+      </c>
+      <c r="AF34">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>44</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>43</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
+      </c>
+      <c r="Y35">
+        <v>1</v>
+      </c>
+      <c r="Z35">
+        <v>1</v>
+      </c>
+      <c r="AA35">
+        <v>1</v>
+      </c>
+      <c r="AB35">
+        <v>1</v>
+      </c>
+      <c r="AC35">
+        <v>1</v>
+      </c>
+      <c r="AD35">
+        <v>1</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
+      </c>
+      <c r="AF35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>46</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>45</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="D36">
+        <v>0.5</v>
+      </c>
+      <c r="E36">
+        <v>0.5</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="G36">
+        <v>0.5</v>
+      </c>
+      <c r="H36">
+        <v>0.5</v>
+      </c>
+      <c r="I36">
+        <v>0.5</v>
+      </c>
+      <c r="J36">
+        <v>0.5</v>
+      </c>
+      <c r="K36">
+        <v>0.5</v>
+      </c>
+      <c r="L36">
+        <v>0.5</v>
+      </c>
+      <c r="M36">
+        <v>0.5</v>
+      </c>
+      <c r="N36">
+        <v>0.5</v>
+      </c>
+      <c r="O36">
+        <v>0.5</v>
+      </c>
+      <c r="P36">
+        <v>0.5</v>
+      </c>
+      <c r="Q36">
+        <v>0.5</v>
+      </c>
+      <c r="R36">
+        <v>0.5</v>
+      </c>
+      <c r="S36">
+        <v>0.5</v>
+      </c>
+      <c r="T36">
+        <v>0.5</v>
+      </c>
+      <c r="U36">
+        <v>0.5</v>
+      </c>
+      <c r="V36">
+        <v>0.5</v>
+      </c>
+      <c r="W36">
+        <v>0.5</v>
+      </c>
+      <c r="X36">
+        <v>0.5</v>
+      </c>
+      <c r="Y36">
+        <v>0.5</v>
+      </c>
+      <c r="Z36">
+        <v>0.5</v>
+      </c>
+      <c r="AA36">
+        <v>0.5</v>
+      </c>
+      <c r="AB36">
+        <v>0.5</v>
+      </c>
+      <c r="AC36">
+        <v>0.5</v>
+      </c>
+      <c r="AD36">
+        <v>0.5</v>
+      </c>
+      <c r="AE36">
+        <v>0.5</v>
+      </c>
+      <c r="AF36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>48</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>47</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>10</v>
+      </c>
+      <c r="I37">
+        <v>10</v>
+      </c>
+      <c r="J37">
+        <v>10</v>
+      </c>
+      <c r="K37">
+        <v>10</v>
+      </c>
+      <c r="L37">
+        <v>10</v>
+      </c>
+      <c r="M37">
+        <v>10</v>
+      </c>
+      <c r="N37">
+        <v>10</v>
+      </c>
+      <c r="O37">
+        <v>10</v>
+      </c>
+      <c r="P37">
+        <v>10</v>
+      </c>
+      <c r="Q37">
+        <v>10</v>
+      </c>
+      <c r="R37">
+        <v>10</v>
+      </c>
+      <c r="S37">
+        <v>10</v>
+      </c>
+      <c r="T37">
+        <v>10</v>
+      </c>
+      <c r="U37">
+        <v>10</v>
+      </c>
+      <c r="V37">
+        <v>10</v>
+      </c>
+      <c r="W37">
+        <v>10</v>
+      </c>
+      <c r="X37">
+        <v>10</v>
+      </c>
+      <c r="Y37">
+        <v>10</v>
+      </c>
+      <c r="Z37">
+        <v>10</v>
+      </c>
+      <c r="AA37">
+        <v>10</v>
+      </c>
+      <c r="AB37">
+        <v>10</v>
+      </c>
+      <c r="AC37">
+        <v>10</v>
+      </c>
+      <c r="AD37">
+        <v>10</v>
+      </c>
+      <c r="AE37">
+        <v>10</v>
+      </c>
+      <c r="AF37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>50</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>49</v>
       </c>
-      <c r="C37">
+      <c r="C38">
         <v>80</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="D38">
+        <v>80</v>
+      </c>
+      <c r="E38">
+        <v>80</v>
+      </c>
+      <c r="F38">
+        <v>80</v>
+      </c>
+      <c r="G38">
+        <v>80</v>
+      </c>
+      <c r="H38">
+        <v>80</v>
+      </c>
+      <c r="I38">
+        <v>80</v>
+      </c>
+      <c r="J38">
+        <v>80</v>
+      </c>
+      <c r="K38">
+        <v>80</v>
+      </c>
+      <c r="L38">
+        <v>80</v>
+      </c>
+      <c r="M38">
+        <v>80</v>
+      </c>
+      <c r="N38">
+        <v>80</v>
+      </c>
+      <c r="O38">
+        <v>80</v>
+      </c>
+      <c r="P38">
+        <v>80</v>
+      </c>
+      <c r="Q38">
+        <v>80</v>
+      </c>
+      <c r="R38">
+        <v>80</v>
+      </c>
+      <c r="S38">
+        <v>80</v>
+      </c>
+      <c r="T38">
+        <v>80</v>
+      </c>
+      <c r="U38">
+        <v>80</v>
+      </c>
+      <c r="V38">
+        <v>80</v>
+      </c>
+      <c r="W38">
+        <v>80</v>
+      </c>
+      <c r="X38">
+        <v>80</v>
+      </c>
+      <c r="Y38">
+        <v>80</v>
+      </c>
+      <c r="Z38">
+        <v>80</v>
+      </c>
+      <c r="AA38">
+        <v>80</v>
+      </c>
+      <c r="AB38">
+        <v>80</v>
+      </c>
+      <c r="AC38">
+        <v>80</v>
+      </c>
+      <c r="AD38">
+        <v>80</v>
+      </c>
+      <c r="AE38">
+        <v>80</v>
+      </c>
+      <c r="AF38">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" t="s">
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="2">
-        <v>9.9999999999999991E-22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="C40" s="2">
+        <v>9.9999999999999992E-25</v>
+      </c>
+      <c r="D40" s="2">
+        <v>9.9999999999999992E-25</v>
+      </c>
+      <c r="E40" s="2">
+        <v>9.9999999999999992E-25</v>
+      </c>
+      <c r="F40" s="2">
+        <v>9.9999999999999992E-25</v>
+      </c>
+      <c r="G40" s="2">
+        <v>9.9999999999999992E-25</v>
+      </c>
+      <c r="H40" s="2">
+        <v>9.9999999999999992E-25</v>
+      </c>
+      <c r="I40" s="2">
+        <v>9.9999999999999992E-25</v>
+      </c>
+      <c r="J40" s="2">
+        <v>9.9999999999999992E-25</v>
+      </c>
+      <c r="K40" s="2">
+        <v>9.9999999999999992E-25</v>
+      </c>
+      <c r="L40" s="2">
+        <v>9.9999999999999992E-25</v>
+      </c>
+      <c r="M40" s="2">
+        <v>9.9999999999999992E-25</v>
+      </c>
+      <c r="N40" s="2">
+        <v>9.9999999999999992E-25</v>
+      </c>
+      <c r="O40" s="2">
+        <v>9.9999999999999992E-25</v>
+      </c>
+      <c r="P40" s="2">
+        <v>9.9999999999999992E-25</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>9.9999999999999992E-25</v>
+      </c>
+      <c r="R40" s="2">
+        <v>9.9999999999999992E-25</v>
+      </c>
+      <c r="S40" s="2">
+        <v>9.9999999999999992E-25</v>
+      </c>
+      <c r="T40" s="2">
+        <v>9.9999999999999992E-25</v>
+      </c>
+      <c r="U40" s="2">
+        <v>9.9999999999999992E-25</v>
+      </c>
+      <c r="V40" s="2">
+        <v>9.9999999999999992E-25</v>
+      </c>
+      <c r="W40" s="2">
+        <v>9.9999999999999992E-25</v>
+      </c>
+      <c r="X40" s="2">
+        <v>9.9999999999999992E-25</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>9.9999999999999992E-25</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>9.9999999999999992E-25</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>9.9999999999999992E-25</v>
+      </c>
+      <c r="AB40" s="2">
+        <v>9.9999999999999992E-25</v>
+      </c>
+      <c r="AC40" s="2">
+        <v>9.9999999999999992E-25</v>
+      </c>
+      <c r="AD40" s="2">
+        <v>9.9999999999999992E-25</v>
+      </c>
+      <c r="AE40" s="2">
+        <v>9.9999999999999992E-25</v>
+      </c>
+      <c r="AF40" s="2">
+        <v>9.9999999999999992E-25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
         <v>54</v>
       </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>55</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="D43" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" t="s">
+        <v>56</v>
+      </c>
+      <c r="G43" t="s">
+        <v>56</v>
+      </c>
+      <c r="H43" t="s">
+        <v>56</v>
+      </c>
+      <c r="I43" t="s">
+        <v>56</v>
+      </c>
+      <c r="J43" t="s">
+        <v>56</v>
+      </c>
+      <c r="K43" t="s">
+        <v>56</v>
+      </c>
+      <c r="L43" t="s">
+        <v>56</v>
+      </c>
+      <c r="M43" t="s">
+        <v>56</v>
+      </c>
+      <c r="N43" t="s">
+        <v>56</v>
+      </c>
+      <c r="O43" t="s">
+        <v>56</v>
+      </c>
+      <c r="P43" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>56</v>
+      </c>
+      <c r="R43" t="s">
+        <v>56</v>
+      </c>
+      <c r="S43" t="s">
+        <v>56</v>
+      </c>
+      <c r="T43" t="s">
+        <v>56</v>
+      </c>
+      <c r="U43" t="s">
+        <v>56</v>
+      </c>
+      <c r="V43" t="s">
+        <v>56</v>
+      </c>
+      <c r="W43" t="s">
+        <v>56</v>
+      </c>
+      <c r="X43" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>15</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>59</v>
       </c>
-      <c r="C45">
+      <c r="C46">
         <v>1000</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="D46">
+        <v>1000</v>
+      </c>
+      <c r="E46">
+        <v>1000</v>
+      </c>
+      <c r="F46">
+        <v>1000</v>
+      </c>
+      <c r="G46">
+        <v>1000</v>
+      </c>
+      <c r="H46">
+        <v>1000</v>
+      </c>
+      <c r="I46">
+        <v>1000</v>
+      </c>
+      <c r="J46">
+        <v>1000</v>
+      </c>
+      <c r="K46">
+        <v>1000</v>
+      </c>
+      <c r="L46">
+        <v>1000</v>
+      </c>
+      <c r="M46">
+        <v>1000</v>
+      </c>
+      <c r="N46">
+        <v>1000</v>
+      </c>
+      <c r="O46">
+        <v>1000</v>
+      </c>
+      <c r="P46">
+        <v>1000</v>
+      </c>
+      <c r="Q46">
+        <v>1000</v>
+      </c>
+      <c r="R46">
+        <v>1000</v>
+      </c>
+      <c r="S46">
+        <v>1000</v>
+      </c>
+      <c r="T46">
+        <v>1000</v>
+      </c>
+      <c r="U46">
+        <v>1000</v>
+      </c>
+      <c r="V46">
+        <v>1000</v>
+      </c>
+      <c r="W46">
+        <v>1000</v>
+      </c>
+      <c r="X46">
+        <v>1000</v>
+      </c>
+      <c r="Y46">
+        <v>1000</v>
+      </c>
+      <c r="Z46">
+        <v>1000</v>
+      </c>
+      <c r="AA46">
+        <v>1000</v>
+      </c>
+      <c r="AB46">
+        <v>1000</v>
+      </c>
+      <c r="AC46">
+        <v>1000</v>
+      </c>
+      <c r="AD46">
+        <v>1000</v>
+      </c>
+      <c r="AE46">
+        <v>1000</v>
+      </c>
+      <c r="AF46">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>61</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>60</v>
       </c>
-      <c r="C46">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" t="s">
-        <v>62</v>
-      </c>
       <c r="C47">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47">
+        <v>5</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="I47">
+        <v>5</v>
+      </c>
+      <c r="J47">
+        <v>5</v>
+      </c>
+      <c r="K47">
+        <v>5</v>
+      </c>
+      <c r="L47">
+        <v>5</v>
+      </c>
+      <c r="M47">
+        <v>5</v>
+      </c>
+      <c r="N47">
+        <v>5</v>
+      </c>
+      <c r="O47">
+        <v>5</v>
+      </c>
+      <c r="P47">
+        <v>5</v>
+      </c>
+      <c r="Q47">
+        <v>5</v>
+      </c>
+      <c r="R47">
+        <v>5</v>
+      </c>
+      <c r="S47">
+        <v>5</v>
+      </c>
+      <c r="T47">
+        <v>5</v>
+      </c>
+      <c r="U47">
+        <v>5</v>
+      </c>
+      <c r="V47">
+        <v>5</v>
+      </c>
+      <c r="W47">
+        <v>5</v>
+      </c>
+      <c r="X47">
+        <v>5</v>
+      </c>
+      <c r="Y47">
+        <v>5</v>
+      </c>
+      <c r="Z47">
+        <v>5</v>
+      </c>
+      <c r="AA47">
+        <v>5</v>
+      </c>
+      <c r="AB47">
+        <v>5</v>
+      </c>
+      <c r="AC47">
+        <v>5</v>
+      </c>
+      <c r="AD47">
+        <v>5</v>
+      </c>
+      <c r="AE47">
+        <v>5</v>
+      </c>
+      <c r="AF47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>22</v>
       </c>
       <c r="B48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48">
+        <v>8</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+      <c r="E48">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>8</v>
+      </c>
+      <c r="G48">
+        <v>8</v>
+      </c>
+      <c r="H48">
+        <v>8</v>
+      </c>
+      <c r="I48">
+        <v>8</v>
+      </c>
+      <c r="J48">
+        <v>8</v>
+      </c>
+      <c r="K48">
+        <v>8</v>
+      </c>
+      <c r="L48">
+        <v>8</v>
+      </c>
+      <c r="M48">
+        <v>8</v>
+      </c>
+      <c r="N48">
+        <v>8</v>
+      </c>
+      <c r="O48">
+        <v>8</v>
+      </c>
+      <c r="P48">
+        <v>8</v>
+      </c>
+      <c r="Q48">
+        <v>8</v>
+      </c>
+      <c r="R48">
+        <v>8</v>
+      </c>
+      <c r="S48">
+        <v>8</v>
+      </c>
+      <c r="T48">
+        <v>8</v>
+      </c>
+      <c r="U48">
+        <v>8</v>
+      </c>
+      <c r="V48">
+        <v>8</v>
+      </c>
+      <c r="W48">
+        <v>8</v>
+      </c>
+      <c r="X48">
+        <v>8</v>
+      </c>
+      <c r="Y48">
+        <v>8</v>
+      </c>
+      <c r="Z48">
+        <v>8</v>
+      </c>
+      <c r="AA48">
+        <v>8</v>
+      </c>
+      <c r="AB48">
+        <v>8</v>
+      </c>
+      <c r="AC48">
+        <v>8</v>
+      </c>
+      <c r="AD48">
+        <v>8</v>
+      </c>
+      <c r="AE48">
+        <v>8</v>
+      </c>
+      <c r="AF48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" t="s">
         <v>63</v>
       </c>
-      <c r="C48">
+      <c r="C49">
         <v>13</v>
       </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>65</v>
-      </c>
-      <c r="B49" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49">
-        <f t="shared" ref="C49" si="0">-2/12*PI()</f>
-        <v>-0.52359877559829882</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="D49">
+        <v>13</v>
+      </c>
+      <c r="E49">
+        <v>13</v>
+      </c>
+      <c r="F49">
+        <v>13</v>
+      </c>
+      <c r="G49">
+        <v>13</v>
+      </c>
+      <c r="H49">
+        <v>13</v>
+      </c>
+      <c r="I49">
+        <v>13</v>
+      </c>
+      <c r="J49">
+        <v>13</v>
+      </c>
+      <c r="K49">
+        <v>13</v>
+      </c>
+      <c r="L49">
+        <v>13</v>
+      </c>
+      <c r="M49">
+        <v>13</v>
+      </c>
+      <c r="N49">
+        <v>13</v>
+      </c>
+      <c r="O49">
+        <v>13</v>
+      </c>
+      <c r="P49">
+        <v>13</v>
+      </c>
+      <c r="Q49">
+        <v>13</v>
+      </c>
+      <c r="R49">
+        <v>13</v>
+      </c>
+      <c r="S49">
+        <v>13</v>
+      </c>
+      <c r="T49">
+        <v>13</v>
+      </c>
+      <c r="U49">
+        <v>13</v>
+      </c>
+      <c r="V49">
+        <v>13</v>
+      </c>
+      <c r="W49">
+        <v>13</v>
+      </c>
+      <c r="X49">
+        <v>13</v>
+      </c>
+      <c r="Y49">
+        <v>13</v>
+      </c>
+      <c r="Z49">
+        <v>13</v>
+      </c>
+      <c r="AA49">
+        <v>13</v>
+      </c>
+      <c r="AB49">
+        <v>13</v>
+      </c>
+      <c r="AC49">
+        <v>13</v>
+      </c>
+      <c r="AD49">
+        <v>13</v>
+      </c>
+      <c r="AE49">
+        <v>13</v>
+      </c>
+      <c r="AF49">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>65</v>
       </c>
       <c r="B50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ref="C50:AF50" si="0">-2/12*PI()</f>
+        <v>-0.52359877559829882</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>-0.52359877559829882</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>-0.52359877559829882</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>-0.52359877559829882</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>-0.52359877559829882</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>-0.52359877559829882</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>-0.52359877559829882</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>-0.52359877559829882</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="0"/>
+        <v>-0.52359877559829882</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="0"/>
+        <v>-0.52359877559829882</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="0"/>
+        <v>-0.52359877559829882</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="0"/>
+        <v>-0.52359877559829882</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="0"/>
+        <v>-0.52359877559829882</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="0"/>
+        <v>-0.52359877559829882</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="0"/>
+        <v>-0.52359877559829882</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="0"/>
+        <v>-0.52359877559829882</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="0"/>
+        <v>-0.52359877559829882</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="0"/>
+        <v>-0.52359877559829882</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="0"/>
+        <v>-0.52359877559829882</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="0"/>
+        <v>-0.52359877559829882</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="0"/>
+        <v>-0.52359877559829882</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="0"/>
+        <v>-0.52359877559829882</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="0"/>
+        <v>-0.52359877559829882</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="0"/>
+        <v>-0.52359877559829882</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="0"/>
+        <v>-0.52359877559829882</v>
+      </c>
+      <c r="AB50">
+        <f t="shared" si="0"/>
+        <v>-0.52359877559829882</v>
+      </c>
+      <c r="AC50">
+        <f t="shared" si="0"/>
+        <v>-0.52359877559829882</v>
+      </c>
+      <c r="AD50">
+        <f t="shared" si="0"/>
+        <v>-0.52359877559829882</v>
+      </c>
+      <c r="AE50">
+        <f t="shared" si="0"/>
+        <v>-0.52359877559829882</v>
+      </c>
+      <c r="AF50">
+        <f t="shared" si="0"/>
+        <v>-0.52359877559829882</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" t="s">
         <v>66</v>
       </c>
-      <c r="C50">
-        <f t="shared" ref="C50" si="1">2/12*PI()</f>
+      <c r="C51">
+        <f t="shared" ref="C51:AF51" si="1">2/12*PI()</f>
         <v>0.52359877559829882</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="1"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="1"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="1"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="1"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="1"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="1"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="1"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="1"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="1"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="1"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="1"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="1"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="1"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="1"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="1"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="1"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="1"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="Z51">
+        <f t="shared" si="1"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="1"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="AB51">
+        <f t="shared" si="1"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="AC51">
+        <f t="shared" si="1"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="AD51">
+        <f t="shared" si="1"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="AE51">
+        <f t="shared" si="1"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="AF51">
+        <f t="shared" si="1"/>
+        <v>0.52359877559829882</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>68</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>67</v>
       </c>
-      <c r="C51">
-        <f t="shared" ref="C51" si="2">11/6*PI()</f>
+      <c r="C52">
+        <f t="shared" ref="C52:AF52" si="2">11/6*PI()</f>
         <v>5.7595865315812871</v>
       </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="2"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="2"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="2"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="2"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="2"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="2"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="2"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="2"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="2"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="2"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="2"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="2"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="2"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="2"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="2"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="2"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="2"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="2"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="2"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="2"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="2"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" si="2"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="AC52">
+        <f t="shared" si="2"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="AD52">
+        <f t="shared" si="2"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="AE52">
+        <f t="shared" si="2"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="AF52">
+        <f t="shared" si="2"/>
+        <v>5.7595865315812871</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
         <v>69</v>
       </c>
-      <c r="C52">
+      <c r="C53">
         <v>-1.8429999999999998E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
+      <c r="D53">
+        <v>-1.8429999999999998E-2</v>
+      </c>
+      <c r="E53">
+        <v>-1.8429999999999998E-2</v>
+      </c>
+      <c r="F53">
+        <v>-1.8429999999999998E-2</v>
+      </c>
+      <c r="G53">
+        <v>-1.8429999999999998E-2</v>
+      </c>
+      <c r="H53">
+        <v>-1.8429999999999998E-2</v>
+      </c>
+      <c r="I53">
+        <v>-1.8429999999999998E-2</v>
+      </c>
+      <c r="J53">
+        <v>-1.8429999999999998E-2</v>
+      </c>
+      <c r="K53">
+        <v>-1.8429999999999998E-2</v>
+      </c>
+      <c r="L53">
+        <v>-1.8429999999999998E-2</v>
+      </c>
+      <c r="M53">
+        <v>-1.8429999999999998E-2</v>
+      </c>
+      <c r="N53">
+        <v>-1.8429999999999998E-2</v>
+      </c>
+      <c r="O53">
+        <v>-1.8429999999999998E-2</v>
+      </c>
+      <c r="P53">
+        <v>-1.8429999999999998E-2</v>
+      </c>
+      <c r="Q53">
+        <v>-1.8429999999999998E-2</v>
+      </c>
+      <c r="R53">
+        <v>-1.8429999999999998E-2</v>
+      </c>
+      <c r="S53">
+        <v>-1.8429999999999998E-2</v>
+      </c>
+      <c r="T53">
+        <v>-1.8429999999999998E-2</v>
+      </c>
+      <c r="U53">
+        <v>-1.8429999999999998E-2</v>
+      </c>
+      <c r="V53">
+        <v>-1.8429999999999998E-2</v>
+      </c>
+      <c r="W53">
+        <v>-1.8429999999999998E-2</v>
+      </c>
+      <c r="X53">
+        <v>-1.8429999999999998E-2</v>
+      </c>
+      <c r="Y53">
+        <v>-1.8429999999999998E-2</v>
+      </c>
+      <c r="Z53">
+        <v>-1.8429999999999998E-2</v>
+      </c>
+      <c r="AA53">
+        <v>-1.8429999999999998E-2</v>
+      </c>
+      <c r="AB53">
+        <v>-1.8429999999999998E-2</v>
+      </c>
+      <c r="AC53">
+        <v>-1.8429999999999998E-2</v>
+      </c>
+      <c r="AD53">
+        <v>-1.8429999999999998E-2</v>
+      </c>
+      <c r="AE53">
+        <v>-1.8429999999999998E-2</v>
+      </c>
+      <c r="AF53">
+        <v>-1.8429999999999998E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
         <v>70</v>
       </c>
-      <c r="C53">
+      <c r="C54">
         <v>0.37819999999999998</v>
       </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
+      <c r="D54">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="E54">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="F54">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="G54">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="H54">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="I54">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="J54">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="K54">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="L54">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="M54">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="N54">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="O54">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="P54">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="Q54">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="R54">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="S54">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="T54">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="U54">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="V54">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="W54">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="X54">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="Y54">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="Z54">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="AA54">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="AB54">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="AC54">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="AD54">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="AE54">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="AF54">
+        <v>0.37819999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
         <v>71</v>
       </c>
-      <c r="C54">
-        <f t="shared" ref="C54" si="3">-2.3782</f>
+      <c r="C55">
+        <f t="shared" ref="C55:AF55" si="3">-2.3782</f>
         <v>-2.3782000000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="D55">
+        <f t="shared" si="3"/>
+        <v>-2.3782000000000001</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="3"/>
+        <v>-2.3782000000000001</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="3"/>
+        <v>-2.3782000000000001</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="3"/>
+        <v>-2.3782000000000001</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="3"/>
+        <v>-2.3782000000000001</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="3"/>
+        <v>-2.3782000000000001</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="3"/>
+        <v>-2.3782000000000001</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="3"/>
+        <v>-2.3782000000000001</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="3"/>
+        <v>-2.3782000000000001</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="3"/>
+        <v>-2.3782000000000001</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="3"/>
+        <v>-2.3782000000000001</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="3"/>
+        <v>-2.3782000000000001</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="3"/>
+        <v>-2.3782000000000001</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="3"/>
+        <v>-2.3782000000000001</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="3"/>
+        <v>-2.3782000000000001</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="3"/>
+        <v>-2.3782000000000001</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="3"/>
+        <v>-2.3782000000000001</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="3"/>
+        <v>-2.3782000000000001</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="3"/>
+        <v>-2.3782000000000001</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="3"/>
+        <v>-2.3782000000000001</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="3"/>
+        <v>-2.3782000000000001</v>
+      </c>
+      <c r="Y55">
+        <f t="shared" si="3"/>
+        <v>-2.3782000000000001</v>
+      </c>
+      <c r="Z55">
+        <f t="shared" si="3"/>
+        <v>-2.3782000000000001</v>
+      </c>
+      <c r="AA55">
+        <f t="shared" si="3"/>
+        <v>-2.3782000000000001</v>
+      </c>
+      <c r="AB55">
+        <f t="shared" si="3"/>
+        <v>-2.3782000000000001</v>
+      </c>
+      <c r="AC55">
+        <f t="shared" si="3"/>
+        <v>-2.3782000000000001</v>
+      </c>
+      <c r="AD55">
+        <f t="shared" si="3"/>
+        <v>-2.3782000000000001</v>
+      </c>
+      <c r="AE55">
+        <f t="shared" si="3"/>
+        <v>-2.3782000000000001</v>
+      </c>
+      <c r="AF55">
+        <f t="shared" si="3"/>
+        <v>-2.3782000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>15</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>110</v>
       </c>
-      <c r="C55">
+      <c r="C56">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+      <c r="G56">
+        <v>4</v>
+      </c>
+      <c r="H56">
+        <v>4</v>
+      </c>
+      <c r="I56">
+        <v>4</v>
+      </c>
+      <c r="J56">
+        <v>4</v>
+      </c>
+      <c r="K56">
+        <v>4</v>
+      </c>
+      <c r="L56">
+        <v>4</v>
+      </c>
+      <c r="M56">
+        <v>4</v>
+      </c>
+      <c r="N56">
+        <v>4</v>
+      </c>
+      <c r="O56">
+        <v>4</v>
+      </c>
+      <c r="P56">
+        <v>4</v>
+      </c>
+      <c r="Q56">
+        <v>4</v>
+      </c>
+      <c r="R56">
+        <v>4</v>
+      </c>
+      <c r="S56">
+        <v>4</v>
+      </c>
+      <c r="T56">
+        <v>4</v>
+      </c>
+      <c r="U56">
+        <v>4</v>
+      </c>
+      <c r="V56">
+        <v>4</v>
+      </c>
+      <c r="W56">
+        <v>4</v>
+      </c>
+      <c r="X56">
+        <v>4</v>
+      </c>
+      <c r="Y56">
+        <v>4</v>
+      </c>
+      <c r="Z56">
+        <v>4</v>
+      </c>
+      <c r="AA56">
+        <v>4</v>
+      </c>
+      <c r="AB56">
+        <v>4</v>
+      </c>
+      <c r="AC56">
+        <v>4</v>
+      </c>
+      <c r="AD56">
+        <v>4</v>
+      </c>
+      <c r="AE56">
+        <v>4</v>
+      </c>
+      <c r="AF56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57">
+        <v>0.05</v>
+      </c>
+      <c r="D57">
+        <v>0.05</v>
+      </c>
+      <c r="E57">
+        <v>0.05</v>
+      </c>
+      <c r="F57">
+        <v>0.05</v>
+      </c>
+      <c r="G57">
+        <v>0.05</v>
+      </c>
+      <c r="H57">
+        <v>0.05</v>
+      </c>
+      <c r="I57">
+        <v>0.05</v>
+      </c>
+      <c r="J57">
+        <v>0.05</v>
+      </c>
+      <c r="K57">
+        <v>0.05</v>
+      </c>
+      <c r="L57">
+        <v>0.05</v>
+      </c>
+      <c r="M57">
+        <v>0.05</v>
+      </c>
+      <c r="N57">
+        <v>0.05</v>
+      </c>
+      <c r="O57">
+        <v>0.05</v>
+      </c>
+      <c r="P57">
+        <v>0.05</v>
+      </c>
+      <c r="Q57">
+        <v>0.05</v>
+      </c>
+      <c r="R57">
+        <v>0.05</v>
+      </c>
+      <c r="S57">
+        <v>0.05</v>
+      </c>
+      <c r="T57">
+        <v>0.05</v>
+      </c>
+      <c r="U57">
+        <v>0.05</v>
+      </c>
+      <c r="V57">
+        <v>0.05</v>
+      </c>
+      <c r="W57">
+        <v>0.05</v>
+      </c>
+      <c r="X57">
+        <v>0.05</v>
+      </c>
+      <c r="Y57">
+        <v>0.05</v>
+      </c>
+      <c r="Z57">
+        <v>0.05</v>
+      </c>
+      <c r="AA57">
+        <v>0.05</v>
+      </c>
+      <c r="AB57">
+        <v>0.05</v>
+      </c>
+      <c r="AC57">
+        <v>0.05</v>
+      </c>
+      <c r="AD57">
+        <v>0.05</v>
+      </c>
+      <c r="AE57">
+        <v>0.05</v>
+      </c>
+      <c r="AF57">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60" t="s">
+        <v>74</v>
+      </c>
+      <c r="E60" t="s">
+        <v>74</v>
+      </c>
+      <c r="F60" t="s">
+        <v>74</v>
+      </c>
+      <c r="G60" t="s">
+        <v>74</v>
+      </c>
+      <c r="H60" t="s">
+        <v>74</v>
+      </c>
+      <c r="I60" t="s">
+        <v>74</v>
+      </c>
+      <c r="J60" t="s">
+        <v>74</v>
+      </c>
+      <c r="K60" t="s">
+        <v>74</v>
+      </c>
+      <c r="L60" t="s">
+        <v>74</v>
+      </c>
+      <c r="M60" t="s">
+        <v>74</v>
+      </c>
+      <c r="N60" t="s">
+        <v>74</v>
+      </c>
+      <c r="O60" t="s">
+        <v>74</v>
+      </c>
+      <c r="P60" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>74</v>
+      </c>
+      <c r="R60" t="s">
+        <v>74</v>
+      </c>
+      <c r="S60" t="s">
+        <v>74</v>
+      </c>
+      <c r="T60" t="s">
+        <v>74</v>
+      </c>
+      <c r="U60" t="s">
+        <v>74</v>
+      </c>
+      <c r="V60" t="s">
+        <v>74</v>
+      </c>
+      <c r="W60" t="s">
+        <v>74</v>
+      </c>
+      <c r="X60" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" t="s">
+        <v>76</v>
+      </c>
+      <c r="E61" t="s">
+        <v>76</v>
+      </c>
+      <c r="F61" t="s">
+        <v>76</v>
+      </c>
+      <c r="G61" t="s">
+        <v>76</v>
+      </c>
+      <c r="H61" t="s">
+        <v>76</v>
+      </c>
+      <c r="I61" t="s">
+        <v>76</v>
+      </c>
+      <c r="J61" t="s">
+        <v>76</v>
+      </c>
+      <c r="K61" t="s">
+        <v>76</v>
+      </c>
+      <c r="L61" t="s">
+        <v>76</v>
+      </c>
+      <c r="M61" t="s">
+        <v>76</v>
+      </c>
+      <c r="N61" t="s">
+        <v>76</v>
+      </c>
+      <c r="O61" t="s">
+        <v>76</v>
+      </c>
+      <c r="P61" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>76</v>
+      </c>
+      <c r="R61" t="s">
+        <v>76</v>
+      </c>
+      <c r="S61" t="s">
+        <v>76</v>
+      </c>
+      <c r="T61" t="s">
+        <v>76</v>
+      </c>
+      <c r="U61" t="s">
+        <v>76</v>
+      </c>
+      <c r="V61" t="s">
+        <v>76</v>
+      </c>
+      <c r="W61" t="s">
+        <v>76</v>
+      </c>
+      <c r="X61" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" t="s">
+        <v>78</v>
+      </c>
+      <c r="E62" t="s">
+        <v>78</v>
+      </c>
+      <c r="F62" t="s">
+        <v>78</v>
+      </c>
+      <c r="G62" t="s">
+        <v>78</v>
+      </c>
+      <c r="H62" t="s">
+        <v>78</v>
+      </c>
+      <c r="I62" t="s">
+        <v>78</v>
+      </c>
+      <c r="J62" t="s">
+        <v>78</v>
+      </c>
+      <c r="K62" t="s">
+        <v>78</v>
+      </c>
+      <c r="L62" t="s">
+        <v>78</v>
+      </c>
+      <c r="M62" t="s">
+        <v>78</v>
+      </c>
+      <c r="N62" t="s">
+        <v>78</v>
+      </c>
+      <c r="O62" t="s">
+        <v>78</v>
+      </c>
+      <c r="P62" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>78</v>
+      </c>
+      <c r="R62" t="s">
+        <v>78</v>
+      </c>
+      <c r="S62" t="s">
+        <v>78</v>
+      </c>
+      <c r="T62" t="s">
+        <v>78</v>
+      </c>
+      <c r="U62" t="s">
+        <v>78</v>
+      </c>
+      <c r="V62" t="s">
+        <v>78</v>
+      </c>
+      <c r="W62" t="s">
+        <v>78</v>
+      </c>
+      <c r="X62" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" t="s">
         <v>119</v>
       </c>
-      <c r="B56" t="s">
+      <c r="D63" t="s">
+        <v>119</v>
+      </c>
+      <c r="E63" t="s">
+        <v>119</v>
+      </c>
+      <c r="F63" t="s">
+        <v>119</v>
+      </c>
+      <c r="G63" t="s">
+        <v>119</v>
+      </c>
+      <c r="H63" t="s">
+        <v>119</v>
+      </c>
+      <c r="I63" t="s">
+        <v>119</v>
+      </c>
+      <c r="J63" t="s">
+        <v>119</v>
+      </c>
+      <c r="K63" t="s">
+        <v>119</v>
+      </c>
+      <c r="L63" t="s">
+        <v>119</v>
+      </c>
+      <c r="M63" t="s">
+        <v>119</v>
+      </c>
+      <c r="N63" t="s">
+        <v>119</v>
+      </c>
+      <c r="O63" t="s">
+        <v>119</v>
+      </c>
+      <c r="P63" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>119</v>
+      </c>
+      <c r="R63" t="s">
+        <v>119</v>
+      </c>
+      <c r="S63" t="s">
+        <v>119</v>
+      </c>
+      <c r="T63" t="s">
+        <v>119</v>
+      </c>
+      <c r="U63" t="s">
+        <v>119</v>
+      </c>
+      <c r="V63" t="s">
+        <v>119</v>
+      </c>
+      <c r="W63" t="s">
+        <v>119</v>
+      </c>
+      <c r="X63" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" t="b">
+        <v>0</v>
+      </c>
+      <c r="D64" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" t="b">
+        <v>0</v>
+      </c>
+      <c r="K64" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" t="b">
+        <v>0</v>
+      </c>
+      <c r="N64" t="b">
+        <v>0</v>
+      </c>
+      <c r="O64" t="b">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="b">
+        <v>0</v>
+      </c>
+      <c r="R64" t="b">
+        <v>0</v>
+      </c>
+      <c r="S64" t="b">
+        <v>0</v>
+      </c>
+      <c r="T64" t="b">
+        <v>0</v>
+      </c>
+      <c r="U64" t="b">
+        <v>0</v>
+      </c>
+      <c r="V64" t="b">
+        <v>0</v>
+      </c>
+      <c r="W64" t="b">
+        <v>0</v>
+      </c>
+      <c r="X64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="W65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF65" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="W66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF66" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="W67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF67" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" t="b">
+        <v>1</v>
+      </c>
+      <c r="D68" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" t="b">
+        <v>1</v>
+      </c>
+      <c r="F68" t="b">
+        <v>1</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="b">
+        <v>1</v>
+      </c>
+      <c r="J68" t="b">
+        <v>1</v>
+      </c>
+      <c r="K68" t="b">
+        <v>1</v>
+      </c>
+      <c r="L68" t="b">
+        <v>1</v>
+      </c>
+      <c r="M68" t="b">
+        <v>1</v>
+      </c>
+      <c r="N68" t="b">
+        <v>1</v>
+      </c>
+      <c r="O68" t="b">
+        <v>1</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="b">
+        <v>1</v>
+      </c>
+      <c r="R68" t="b">
+        <v>1</v>
+      </c>
+      <c r="S68" t="b">
+        <v>1</v>
+      </c>
+      <c r="T68" t="b">
+        <v>1</v>
+      </c>
+      <c r="U68" t="b">
+        <v>1</v>
+      </c>
+      <c r="V68" t="b">
+        <v>1</v>
+      </c>
+      <c r="W68" t="b">
+        <v>1</v>
+      </c>
+      <c r="X68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z68" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA68" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB68" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC68" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD68" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE68" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="W69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF69" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" t="b">
+        <v>0</v>
+      </c>
+      <c r="D70" t="b">
+        <v>0</v>
+      </c>
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" t="b">
+        <v>0</v>
+      </c>
+      <c r="K70" t="b">
+        <v>0</v>
+      </c>
+      <c r="L70" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" t="b">
+        <v>0</v>
+      </c>
+      <c r="N70" t="b">
+        <v>0</v>
+      </c>
+      <c r="O70" t="b">
+        <v>0</v>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="b">
+        <v>0</v>
+      </c>
+      <c r="R70" t="b">
+        <v>0</v>
+      </c>
+      <c r="S70" t="b">
+        <v>0</v>
+      </c>
+      <c r="T70" t="b">
+        <v>0</v>
+      </c>
+      <c r="U70" t="b">
+        <v>0</v>
+      </c>
+      <c r="V70" t="b">
+        <v>0</v>
+      </c>
+      <c r="W70" t="b">
+        <v>0</v>
+      </c>
+      <c r="X70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71" t="s">
         <v>120</v>
       </c>
-      <c r="C56">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>73</v>
-      </c>
-      <c r="C59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
-        <v>75</v>
-      </c>
-      <c r="C60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
-        <v>77</v>
-      </c>
-      <c r="C61" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>80</v>
-      </c>
-      <c r="B62" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" t="s">
-        <v>121</v>
-      </c>
-      <c r="X62" s="4"/>
-      <c r="Y62" s="4"/>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>125</v>
-      </c>
-      <c r="C63" t="b">
-        <v>0</v>
-      </c>
-      <c r="X63" s="4"/>
-      <c r="Y63" s="4"/>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
-        <v>81</v>
-      </c>
-      <c r="C64" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
-        <v>82</v>
-      </c>
-      <c r="C65" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
-        <v>83</v>
-      </c>
-      <c r="C66" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
-        <v>84</v>
-      </c>
-      <c r="C67" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
-        <v>85</v>
-      </c>
-      <c r="C68" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
-        <v>86</v>
-      </c>
-      <c r="C69" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>123</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="C71" t="s">
         <v>122</v>
       </c>
-      <c r="C70" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
-        <v>116</v>
-      </c>
-      <c r="C71">
+      <c r="D71" t="s">
+        <v>122</v>
+      </c>
+      <c r="E71" t="s">
+        <v>122</v>
+      </c>
+      <c r="F71" t="s">
+        <v>122</v>
+      </c>
+      <c r="G71" t="s">
+        <v>122</v>
+      </c>
+      <c r="H71" t="s">
+        <v>122</v>
+      </c>
+      <c r="I71" t="s">
+        <v>122</v>
+      </c>
+      <c r="J71" t="s">
+        <v>122</v>
+      </c>
+      <c r="K71" t="s">
+        <v>122</v>
+      </c>
+      <c r="L71" t="s">
+        <v>122</v>
+      </c>
+      <c r="M71" t="s">
+        <v>122</v>
+      </c>
+      <c r="N71" t="s">
+        <v>122</v>
+      </c>
+      <c r="O71" t="s">
+        <v>122</v>
+      </c>
+      <c r="P71" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>122</v>
+      </c>
+      <c r="R71" t="s">
+        <v>122</v>
+      </c>
+      <c r="S71" t="s">
+        <v>122</v>
+      </c>
+      <c r="T71" t="s">
+        <v>122</v>
+      </c>
+      <c r="U71" t="s">
+        <v>122</v>
+      </c>
+      <c r="V71" t="s">
+        <v>122</v>
+      </c>
+      <c r="W71" t="s">
+        <v>122</v>
+      </c>
+      <c r="X71" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>114</v>
+      </c>
+      <c r="C72">
         <v>1500</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="D72">
+        <v>1500</v>
+      </c>
+      <c r="E72">
+        <v>1500</v>
+      </c>
+      <c r="F72">
+        <v>1500</v>
+      </c>
+      <c r="G72">
+        <v>1500</v>
+      </c>
+      <c r="H72">
+        <v>1500</v>
+      </c>
+      <c r="I72">
+        <v>1500</v>
+      </c>
+      <c r="J72">
+        <v>1500</v>
+      </c>
+      <c r="K72">
+        <v>1500</v>
+      </c>
+      <c r="L72">
+        <v>1500</v>
+      </c>
+      <c r="M72">
+        <v>1500</v>
+      </c>
+      <c r="N72">
+        <v>1500</v>
+      </c>
+      <c r="O72">
+        <v>1500</v>
+      </c>
+      <c r="P72">
+        <v>1500</v>
+      </c>
+      <c r="Q72">
+        <v>1500</v>
+      </c>
+      <c r="R72">
+        <v>1500</v>
+      </c>
+      <c r="S72">
+        <v>1500</v>
+      </c>
+      <c r="T72">
+        <v>1500</v>
+      </c>
+      <c r="U72">
+        <v>1500</v>
+      </c>
+      <c r="V72">
+        <v>1500</v>
+      </c>
+      <c r="W72">
+        <v>1500</v>
+      </c>
+      <c r="X72">
+        <v>1500</v>
+      </c>
+      <c r="Y72">
+        <v>1500</v>
+      </c>
+      <c r="Z72">
+        <v>1500</v>
+      </c>
+      <c r="AA72">
+        <v>1500</v>
+      </c>
+      <c r="AB72">
+        <v>1500</v>
+      </c>
+      <c r="AC72">
+        <v>1500</v>
+      </c>
+      <c r="AD72">
+        <v>1500</v>
+      </c>
+      <c r="AE72">
+        <v>1500</v>
+      </c>
+      <c r="AF72">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>126</v>
+      </c>
+      <c r="C73" t="b">
+        <v>0</v>
+      </c>
+      <c r="D73" t="b">
+        <v>0</v>
+      </c>
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" t="b">
+        <v>0</v>
+      </c>
+      <c r="K73" t="b">
+        <v>0</v>
+      </c>
+      <c r="L73" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" t="b">
+        <v>0</v>
+      </c>
+      <c r="N73" t="b">
+        <v>0</v>
+      </c>
+      <c r="O73" t="b">
+        <v>0</v>
+      </c>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="b">
+        <v>0</v>
+      </c>
+      <c r="R73" t="b">
+        <v>0</v>
+      </c>
+      <c r="S73" t="b">
+        <v>0</v>
+      </c>
+      <c r="T73" t="b">
+        <v>0</v>
+      </c>
+      <c r="U73" t="b">
+        <v>0</v>
+      </c>
+      <c r="V73" t="b">
+        <v>0</v>
+      </c>
+      <c r="W73" t="b">
+        <v>0</v>
+      </c>
+      <c r="X73" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y73" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
         <v>88</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C76" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
+      <c r="D76" t="s">
+        <v>89</v>
+      </c>
+      <c r="E76" t="s">
+        <v>89</v>
+      </c>
+      <c r="F76" t="s">
+        <v>89</v>
+      </c>
+      <c r="G76" t="s">
+        <v>89</v>
+      </c>
+      <c r="H76" t="s">
+        <v>89</v>
+      </c>
+      <c r="I76" t="s">
+        <v>89</v>
+      </c>
+      <c r="J76" t="s">
+        <v>89</v>
+      </c>
+      <c r="K76" t="s">
+        <v>89</v>
+      </c>
+      <c r="L76" t="s">
+        <v>89</v>
+      </c>
+      <c r="M76" t="s">
+        <v>89</v>
+      </c>
+      <c r="N76" t="s">
+        <v>89</v>
+      </c>
+      <c r="O76" t="s">
+        <v>89</v>
+      </c>
+      <c r="P76" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>89</v>
+      </c>
+      <c r="R76" t="s">
+        <v>89</v>
+      </c>
+      <c r="S76" t="s">
+        <v>89</v>
+      </c>
+      <c r="T76" t="s">
+        <v>89</v>
+      </c>
+      <c r="U76" t="s">
+        <v>89</v>
+      </c>
+      <c r="V76" t="s">
+        <v>89</v>
+      </c>
+      <c r="W76" t="s">
+        <v>89</v>
+      </c>
+      <c r="X76" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
         <v>90</v>
       </c>
-      <c r="C75">
+      <c r="C77">
         <v>50</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="D77">
+        <v>50</v>
+      </c>
+      <c r="E77">
+        <v>50</v>
+      </c>
+      <c r="F77">
+        <v>50</v>
+      </c>
+      <c r="G77">
+        <v>50</v>
+      </c>
+      <c r="H77">
+        <v>50</v>
+      </c>
+      <c r="I77">
+        <v>50</v>
+      </c>
+      <c r="J77">
+        <v>50</v>
+      </c>
+      <c r="K77">
+        <v>50</v>
+      </c>
+      <c r="L77">
+        <v>50</v>
+      </c>
+      <c r="M77">
+        <v>50</v>
+      </c>
+      <c r="N77">
+        <v>50</v>
+      </c>
+      <c r="O77">
+        <v>50</v>
+      </c>
+      <c r="P77">
+        <v>50</v>
+      </c>
+      <c r="Q77">
+        <v>50</v>
+      </c>
+      <c r="R77">
+        <v>50</v>
+      </c>
+      <c r="S77">
+        <v>50</v>
+      </c>
+      <c r="T77">
+        <v>50</v>
+      </c>
+      <c r="U77">
+        <v>50</v>
+      </c>
+      <c r="V77">
+        <v>50</v>
+      </c>
+      <c r="W77">
+        <v>50</v>
+      </c>
+      <c r="X77">
+        <v>50</v>
+      </c>
+      <c r="Y77">
+        <v>50</v>
+      </c>
+      <c r="Z77">
+        <v>50</v>
+      </c>
+      <c r="AA77">
+        <v>50</v>
+      </c>
+      <c r="AB77">
+        <v>50</v>
+      </c>
+      <c r="AC77">
+        <v>50</v>
+      </c>
+      <c r="AD77">
+        <v>50</v>
+      </c>
+      <c r="AE77">
+        <v>50</v>
+      </c>
+      <c r="AF77">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>101</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B78" t="s">
         <v>91</v>
       </c>
-      <c r="C76">
+      <c r="C78">
         <v>50</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="D78">
+        <v>50</v>
+      </c>
+      <c r="E78">
+        <v>50</v>
+      </c>
+      <c r="F78">
+        <v>50</v>
+      </c>
+      <c r="G78">
+        <v>50</v>
+      </c>
+      <c r="H78">
+        <v>50</v>
+      </c>
+      <c r="I78">
+        <v>50</v>
+      </c>
+      <c r="J78">
+        <v>50</v>
+      </c>
+      <c r="K78">
+        <v>50</v>
+      </c>
+      <c r="L78">
+        <v>50</v>
+      </c>
+      <c r="M78">
+        <v>50</v>
+      </c>
+      <c r="N78">
+        <v>50</v>
+      </c>
+      <c r="O78">
+        <v>50</v>
+      </c>
+      <c r="P78">
+        <v>50</v>
+      </c>
+      <c r="Q78">
+        <v>50</v>
+      </c>
+      <c r="R78">
+        <v>50</v>
+      </c>
+      <c r="S78">
+        <v>50</v>
+      </c>
+      <c r="T78">
+        <v>50</v>
+      </c>
+      <c r="U78">
+        <v>50</v>
+      </c>
+      <c r="V78">
+        <v>50</v>
+      </c>
+      <c r="W78">
+        <v>50</v>
+      </c>
+      <c r="X78">
+        <v>50</v>
+      </c>
+      <c r="Y78">
+        <v>50</v>
+      </c>
+      <c r="Z78">
+        <v>50</v>
+      </c>
+      <c r="AA78">
+        <v>50</v>
+      </c>
+      <c r="AB78">
+        <v>50</v>
+      </c>
+      <c r="AC78">
+        <v>50</v>
+      </c>
+      <c r="AD78">
+        <v>50</v>
+      </c>
+      <c r="AE78">
+        <v>50</v>
+      </c>
+      <c r="AF78">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>22</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B79" t="s">
         <v>92</v>
       </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <v>0</v>
+      </c>
+      <c r="AC79">
+        <v>0</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
+      </c>
+      <c r="AF79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>22</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B80" t="s">
         <v>93</v>
       </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
+      </c>
+      <c r="AC80">
+        <v>0</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
+      </c>
+      <c r="AF80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>15</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B81" t="s">
         <v>94</v>
       </c>
-      <c r="C79">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="C81">
+        <v>600</v>
+      </c>
+      <c r="D81">
+        <v>600</v>
+      </c>
+      <c r="E81">
+        <v>600</v>
+      </c>
+      <c r="F81">
+        <v>600</v>
+      </c>
+      <c r="G81">
+        <v>600</v>
+      </c>
+      <c r="H81">
+        <v>600</v>
+      </c>
+      <c r="I81">
+        <v>600</v>
+      </c>
+      <c r="J81">
+        <v>600</v>
+      </c>
+      <c r="K81">
+        <v>600</v>
+      </c>
+      <c r="L81">
+        <v>600</v>
+      </c>
+      <c r="M81">
+        <v>600</v>
+      </c>
+      <c r="N81">
+        <v>600</v>
+      </c>
+      <c r="O81">
+        <v>600</v>
+      </c>
+      <c r="P81">
+        <v>600</v>
+      </c>
+      <c r="Q81">
+        <v>600</v>
+      </c>
+      <c r="R81">
+        <v>600</v>
+      </c>
+      <c r="S81">
+        <v>600</v>
+      </c>
+      <c r="T81">
+        <v>600</v>
+      </c>
+      <c r="U81">
+        <v>600</v>
+      </c>
+      <c r="V81">
+        <v>600</v>
+      </c>
+      <c r="W81">
+        <v>600</v>
+      </c>
+      <c r="X81">
+        <v>600</v>
+      </c>
+      <c r="Y81">
+        <v>600</v>
+      </c>
+      <c r="Z81">
+        <v>600</v>
+      </c>
+      <c r="AA81">
+        <v>600</v>
+      </c>
+      <c r="AB81">
+        <v>600</v>
+      </c>
+      <c r="AC81">
+        <v>600</v>
+      </c>
+      <c r="AD81">
+        <v>600</v>
+      </c>
+      <c r="AE81">
+        <v>600</v>
+      </c>
+      <c r="AF81">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="82" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>15</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B82" t="s">
         <v>95</v>
       </c>
-      <c r="C80">
+      <c r="C82">
         <v>1100</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="D82">
+        <v>1100</v>
+      </c>
+      <c r="E82">
+        <v>1100</v>
+      </c>
+      <c r="F82">
+        <v>1100</v>
+      </c>
+      <c r="G82">
+        <v>1100</v>
+      </c>
+      <c r="H82">
+        <v>1100</v>
+      </c>
+      <c r="I82">
+        <v>1100</v>
+      </c>
+      <c r="J82">
+        <v>1100</v>
+      </c>
+      <c r="K82">
+        <v>1100</v>
+      </c>
+      <c r="L82">
+        <v>1100</v>
+      </c>
+      <c r="M82">
+        <v>1100</v>
+      </c>
+      <c r="N82">
+        <v>1100</v>
+      </c>
+      <c r="O82">
+        <v>1100</v>
+      </c>
+      <c r="P82">
+        <v>1100</v>
+      </c>
+      <c r="Q82">
+        <v>1100</v>
+      </c>
+      <c r="R82">
+        <v>1100</v>
+      </c>
+      <c r="S82">
+        <v>1100</v>
+      </c>
+      <c r="T82">
+        <v>1100</v>
+      </c>
+      <c r="U82">
+        <v>1100</v>
+      </c>
+      <c r="V82">
+        <v>1100</v>
+      </c>
+      <c r="W82">
+        <v>1100</v>
+      </c>
+      <c r="X82">
+        <v>1100</v>
+      </c>
+      <c r="Y82">
+        <v>1100</v>
+      </c>
+      <c r="Z82">
+        <v>1100</v>
+      </c>
+      <c r="AA82">
+        <v>1100</v>
+      </c>
+      <c r="AB82">
+        <v>1100</v>
+      </c>
+      <c r="AC82">
+        <v>1100</v>
+      </c>
+      <c r="AD82">
+        <v>1100</v>
+      </c>
+      <c r="AE82">
+        <v>1100</v>
+      </c>
+      <c r="AF82">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>105</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B83" t="s">
         <v>96</v>
       </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>1</v>
+      </c>
+      <c r="P83">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>1</v>
+      </c>
+      <c r="R83">
+        <v>1</v>
+      </c>
+      <c r="S83">
+        <v>1</v>
+      </c>
+      <c r="T83">
+        <v>1</v>
+      </c>
+      <c r="U83">
+        <v>1</v>
+      </c>
+      <c r="V83">
+        <v>1</v>
+      </c>
+      <c r="W83">
+        <v>1</v>
+      </c>
+      <c r="X83">
+        <v>1</v>
+      </c>
+      <c r="Y83">
+        <v>1</v>
+      </c>
+      <c r="Z83">
+        <v>1</v>
+      </c>
+      <c r="AA83">
+        <v>1</v>
+      </c>
+      <c r="AB83">
+        <v>1</v>
+      </c>
+      <c r="AC83">
+        <v>1</v>
+      </c>
+      <c r="AD83">
+        <v>1</v>
+      </c>
+      <c r="AE83">
+        <v>1</v>
+      </c>
+      <c r="AF83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>105</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B84" t="s">
         <v>97</v>
       </c>
-      <c r="C82">
+      <c r="C84">
         <v>10</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="D84">
+        <v>10</v>
+      </c>
+      <c r="E84">
+        <v>10</v>
+      </c>
+      <c r="F84">
+        <v>10</v>
+      </c>
+      <c r="G84">
+        <v>10</v>
+      </c>
+      <c r="H84">
+        <v>10</v>
+      </c>
+      <c r="I84">
+        <v>10</v>
+      </c>
+      <c r="J84">
+        <v>10</v>
+      </c>
+      <c r="K84">
+        <v>10</v>
+      </c>
+      <c r="L84">
+        <v>10</v>
+      </c>
+      <c r="M84">
+        <v>10</v>
+      </c>
+      <c r="N84">
+        <v>10</v>
+      </c>
+      <c r="O84">
+        <v>10</v>
+      </c>
+      <c r="P84">
+        <v>10</v>
+      </c>
+      <c r="Q84">
+        <v>10</v>
+      </c>
+      <c r="R84">
+        <v>10</v>
+      </c>
+      <c r="S84">
+        <v>10</v>
+      </c>
+      <c r="T84">
+        <v>10</v>
+      </c>
+      <c r="U84">
+        <v>10</v>
+      </c>
+      <c r="V84">
+        <v>10</v>
+      </c>
+      <c r="W84">
+        <v>10</v>
+      </c>
+      <c r="X84">
+        <v>10</v>
+      </c>
+      <c r="Y84">
+        <v>10</v>
+      </c>
+      <c r="Z84">
+        <v>10</v>
+      </c>
+      <c r="AA84">
+        <v>10</v>
+      </c>
+      <c r="AB84">
+        <v>10</v>
+      </c>
+      <c r="AC84">
+        <v>10</v>
+      </c>
+      <c r="AD84">
+        <v>10</v>
+      </c>
+      <c r="AE84">
+        <v>10</v>
+      </c>
+      <c r="AF84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>104</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B85" t="s">
         <v>98</v>
       </c>
-      <c r="C83">
+      <c r="C85">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="D85">
+        <v>1E-3</v>
+      </c>
+      <c r="E85">
+        <v>1E-3</v>
+      </c>
+      <c r="F85">
+        <v>1E-3</v>
+      </c>
+      <c r="G85">
+        <v>1E-3</v>
+      </c>
+      <c r="H85">
+        <v>1E-3</v>
+      </c>
+      <c r="I85">
+        <v>1E-3</v>
+      </c>
+      <c r="J85">
+        <v>1E-3</v>
+      </c>
+      <c r="K85">
+        <v>1E-3</v>
+      </c>
+      <c r="L85">
+        <v>1E-3</v>
+      </c>
+      <c r="M85">
+        <v>1E-3</v>
+      </c>
+      <c r="N85">
+        <v>1E-3</v>
+      </c>
+      <c r="O85">
+        <v>1E-3</v>
+      </c>
+      <c r="P85">
+        <v>1E-3</v>
+      </c>
+      <c r="Q85">
+        <v>1E-3</v>
+      </c>
+      <c r="R85">
+        <v>1E-3</v>
+      </c>
+      <c r="S85">
+        <v>1E-3</v>
+      </c>
+      <c r="T85">
+        <v>1E-3</v>
+      </c>
+      <c r="U85">
+        <v>1E-3</v>
+      </c>
+      <c r="V85">
+        <v>1E-3</v>
+      </c>
+      <c r="W85">
+        <v>1E-3</v>
+      </c>
+      <c r="X85">
+        <v>1E-3</v>
+      </c>
+      <c r="Y85">
+        <v>1E-3</v>
+      </c>
+      <c r="Z85">
+        <v>1E-3</v>
+      </c>
+      <c r="AA85">
+        <v>1E-3</v>
+      </c>
+      <c r="AB85">
+        <v>1E-3</v>
+      </c>
+      <c r="AC85">
+        <v>1E-3</v>
+      </c>
+      <c r="AD85">
+        <v>1E-3</v>
+      </c>
+      <c r="AE85">
+        <v>1E-3</v>
+      </c>
+      <c r="AF85">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>102</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B86" t="s">
         <v>99</v>
       </c>
-      <c r="C84">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="C86">
+        <v>3000</v>
+      </c>
+      <c r="D86">
+        <v>3000</v>
+      </c>
+      <c r="E86">
+        <v>3000</v>
+      </c>
+      <c r="F86">
+        <v>3000</v>
+      </c>
+      <c r="G86">
+        <v>3000</v>
+      </c>
+      <c r="H86">
+        <v>3000</v>
+      </c>
+      <c r="I86">
+        <v>3000</v>
+      </c>
+      <c r="J86">
+        <v>3000</v>
+      </c>
+      <c r="K86">
+        <v>3000</v>
+      </c>
+      <c r="L86">
+        <v>3000</v>
+      </c>
+      <c r="M86">
+        <v>3000</v>
+      </c>
+      <c r="N86">
+        <v>3000</v>
+      </c>
+      <c r="O86">
+        <v>3000</v>
+      </c>
+      <c r="P86">
+        <v>3000</v>
+      </c>
+      <c r="Q86">
+        <v>3000</v>
+      </c>
+      <c r="R86">
+        <v>3000</v>
+      </c>
+      <c r="S86">
+        <v>3000</v>
+      </c>
+      <c r="T86">
+        <v>3000</v>
+      </c>
+      <c r="U86">
+        <v>3000</v>
+      </c>
+      <c r="V86">
+        <v>3000</v>
+      </c>
+      <c r="W86">
+        <v>3000</v>
+      </c>
+      <c r="X86">
+        <v>3000</v>
+      </c>
+      <c r="Y86">
+        <v>3000</v>
+      </c>
+      <c r="Z86">
+        <v>3000</v>
+      </c>
+      <c r="AA86">
+        <v>3000</v>
+      </c>
+      <c r="AB86">
+        <v>3000</v>
+      </c>
+      <c r="AC86">
+        <v>3000</v>
+      </c>
+      <c r="AD86">
+        <v>3000</v>
+      </c>
+      <c r="AE86">
+        <v>3000</v>
+      </c>
+      <c r="AF86">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>103</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B87" t="s">
         <v>100</v>
       </c>
-      <c r="C85">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+      <c r="C87">
+        <v>9000</v>
+      </c>
+      <c r="D87">
+        <v>9000</v>
+      </c>
+      <c r="E87">
+        <v>9000</v>
+      </c>
+      <c r="F87">
+        <v>9000</v>
+      </c>
+      <c r="G87">
+        <v>9000</v>
+      </c>
+      <c r="H87">
+        <v>9000</v>
+      </c>
+      <c r="I87">
+        <v>9000</v>
+      </c>
+      <c r="J87">
+        <v>9000</v>
+      </c>
+      <c r="K87">
+        <v>9000</v>
+      </c>
+      <c r="L87">
+        <v>9000</v>
+      </c>
+      <c r="M87">
+        <v>9000</v>
+      </c>
+      <c r="N87">
+        <v>9000</v>
+      </c>
+      <c r="O87">
+        <v>9000</v>
+      </c>
+      <c r="P87">
+        <v>9000</v>
+      </c>
+      <c r="Q87">
+        <v>9000</v>
+      </c>
+      <c r="R87">
+        <v>9000</v>
+      </c>
+      <c r="S87">
+        <v>9000</v>
+      </c>
+      <c r="T87">
+        <v>9000</v>
+      </c>
+      <c r="U87">
+        <v>9000</v>
+      </c>
+      <c r="V87">
+        <v>9000</v>
+      </c>
+      <c r="W87">
+        <v>9000</v>
+      </c>
+      <c r="X87">
+        <v>9000</v>
+      </c>
+      <c r="Y87">
+        <v>9000</v>
+      </c>
+      <c r="Z87">
+        <v>9000</v>
+      </c>
+      <c r="AA87">
+        <v>9000</v>
+      </c>
+      <c r="AB87">
+        <v>9000</v>
+      </c>
+      <c r="AC87">
+        <v>9000</v>
+      </c>
+      <c r="AD87">
+        <v>9000</v>
+      </c>
+      <c r="AE87">
+        <v>9000</v>
+      </c>
+      <c r="AF87">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B88" t="s">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
         <v>107</v>
       </c>
-      <c r="C88" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B89" t="s">
+      <c r="C90" t="s">
+        <v>112</v>
+      </c>
+      <c r="D90" t="s">
+        <v>112</v>
+      </c>
+      <c r="E90" t="s">
+        <v>112</v>
+      </c>
+      <c r="F90" t="s">
+        <v>112</v>
+      </c>
+      <c r="G90" t="s">
+        <v>112</v>
+      </c>
+      <c r="H90" t="s">
+        <v>112</v>
+      </c>
+      <c r="I90" t="s">
+        <v>112</v>
+      </c>
+      <c r="J90" t="s">
+        <v>112</v>
+      </c>
+      <c r="K90" t="s">
+        <v>112</v>
+      </c>
+      <c r="L90" t="s">
+        <v>112</v>
+      </c>
+      <c r="M90" t="s">
+        <v>112</v>
+      </c>
+      <c r="N90" t="s">
+        <v>112</v>
+      </c>
+      <c r="O90" t="s">
+        <v>112</v>
+      </c>
+      <c r="P90" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>112</v>
+      </c>
+      <c r="R90" t="s">
+        <v>112</v>
+      </c>
+      <c r="S90" t="s">
+        <v>112</v>
+      </c>
+      <c r="T90" t="s">
+        <v>112</v>
+      </c>
+      <c r="U90" t="s">
+        <v>112</v>
+      </c>
+      <c r="V90" t="s">
+        <v>112</v>
+      </c>
+      <c r="W90" t="s">
+        <v>112</v>
+      </c>
+      <c r="X90" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC90" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD90" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE90" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF90" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
         <v>108</v>
       </c>
-      <c r="C89" t="s">
-        <v>115</v>
+      <c r="C91" t="s">
+        <v>113</v>
+      </c>
+      <c r="D91" t="s">
+        <v>113</v>
+      </c>
+      <c r="E91" t="s">
+        <v>113</v>
+      </c>
+      <c r="F91" t="s">
+        <v>113</v>
+      </c>
+      <c r="G91" t="s">
+        <v>113</v>
+      </c>
+      <c r="H91" t="s">
+        <v>113</v>
+      </c>
+      <c r="I91" t="s">
+        <v>113</v>
+      </c>
+      <c r="J91" t="s">
+        <v>113</v>
+      </c>
+      <c r="K91" t="s">
+        <v>113</v>
+      </c>
+      <c r="L91" t="s">
+        <v>113</v>
+      </c>
+      <c r="M91" t="s">
+        <v>113</v>
+      </c>
+      <c r="N91" t="s">
+        <v>113</v>
+      </c>
+      <c r="O91" t="s">
+        <v>113</v>
+      </c>
+      <c r="P91" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>113</v>
+      </c>
+      <c r="R91" t="s">
+        <v>113</v>
+      </c>
+      <c r="S91" t="s">
+        <v>113</v>
+      </c>
+      <c r="T91" t="s">
+        <v>113</v>
+      </c>
+      <c r="U91" t="s">
+        <v>113</v>
+      </c>
+      <c r="V91" t="s">
+        <v>113</v>
+      </c>
+      <c r="W91" t="s">
+        <v>113</v>
+      </c>
+      <c r="X91" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC91" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD91" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE91" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF91" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
